--- a/data/134/DEUSTATIS/old/National accounts - GDP quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - GDP quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5759" uniqueCount="72">
   <si>
     <t>National accounts - Gross value added, gross domestic
 product (nominal/price-adjusted): Germany, quarters,
@@ -229,7 +229,7 @@
     <t xml:space="preserve">  Change on previous quarter in %.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:46:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:49:29</t>
   </si>
 </sst>
 </file>
@@ -3018,6 +3018,7 @@
     <col min="122" max="122" width="10.12890625" customWidth="true"/>
     <col min="123" max="123" width="10.12890625" customWidth="true"/>
     <col min="124" max="124" width="10.12890625" customWidth="true"/>
+    <col min="125" max="125" width="10.12890625" customWidth="true"/>
     <col min="1" max="1" width="46.890625" style="8" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3984,13 +3985,13 @@
         <v>801.804</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>769.266</v>
+        <v>769.218</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>777.044</v>
-      </c>
-      <c r="DU8" t="s" s="11">
-        <v>44</v>
+        <v>779.95</v>
+      </c>
+      <c r="DU8" t="n" s="11">
+        <v>822.465</v>
       </c>
       <c r="DV8" t="s" s="11">
         <v>44</v>
@@ -4364,13 +4365,13 @@
         <v>78.506</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>77.894</v>
+        <v>77.892</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>82.226</v>
-      </c>
-      <c r="DU9" t="s" s="11">
-        <v>44</v>
+        <v>83.27</v>
+      </c>
+      <c r="DU9" t="n" s="11">
+        <v>91.325</v>
       </c>
       <c r="DV9" t="s" s="11">
         <v>44</v>
@@ -5504,13 +5505,13 @@
         <v>880.31</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>847.16</v>
+        <v>847.11</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>859.27</v>
-      </c>
-      <c r="DU12" t="s" s="11">
-        <v>44</v>
+        <v>863.22</v>
+      </c>
+      <c r="DU12" t="n" s="11">
+        <v>913.79</v>
       </c>
       <c r="DV12" t="s" s="11">
         <v>44</v>
@@ -5887,10 +5888,10 @@
         <v>-1.5</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="DU13" t="s" s="11">
-        <v>44</v>
+        <v>11.5</v>
+      </c>
+      <c r="DU13" t="n" s="11">
+        <v>7.1</v>
       </c>
       <c r="DV13" t="s" s="11">
         <v>44</v>
@@ -6267,10 +6268,10 @@
         <v>10191.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>10337.0</v>
-      </c>
-      <c r="DU14" t="s" s="11">
-        <v>44</v>
+        <v>10385.0</v>
+      </c>
+      <c r="DU14" t="n" s="11">
+        <v>10990.0</v>
       </c>
       <c r="DV14" t="s" s="11">
         <v>44</v>
@@ -6649,13 +6650,13 @@
         <v>105.78</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>101.35</v>
+        <v>101.28</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>102.71</v>
-      </c>
-      <c r="DU16" t="s" s="11">
-        <v>44</v>
+        <v>103.13</v>
+      </c>
+      <c r="DU16" t="n" s="11">
+        <v>106.74</v>
       </c>
       <c r="DV16" t="s" s="11">
         <v>44</v>
@@ -7029,13 +7030,13 @@
         <v>109.71</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>104.52</v>
+        <v>106.72</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>105.89</v>
-      </c>
-      <c r="DU17" t="s" s="11">
-        <v>44</v>
+        <v>107.57</v>
+      </c>
+      <c r="DU17" t="n" s="11">
+        <v>107.51</v>
       </c>
       <c r="DV17" t="s" s="11">
         <v>44</v>
@@ -8169,13 +8170,13 @@
         <v>106.17</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>101.65</v>
+        <v>101.79</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>103.02</v>
-      </c>
-      <c r="DU20" t="s" s="11">
-        <v>44</v>
+        <v>103.56</v>
+      </c>
+      <c r="DU20" t="n" s="11">
+        <v>106.82</v>
       </c>
       <c r="DV20" t="s" s="11">
         <v>44</v>
@@ -8549,13 +8550,13 @@
         <v>-1.9</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>9.8</v>
-      </c>
-      <c r="DU21" t="s" s="11">
-        <v>44</v>
+        <v>10.4</v>
+      </c>
+      <c r="DU21" t="n" s="11">
+        <v>2.5</v>
       </c>
       <c r="DV21" t="s" s="11">
         <v>44</v>
@@ -8929,13 +8930,13 @@
         <v>104.25</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>99.89</v>
+        <v>100.03</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>101.24</v>
-      </c>
-      <c r="DU22" t="s" s="11">
-        <v>44</v>
+        <v>101.77</v>
+      </c>
+      <c r="DU22" t="n" s="11">
+        <v>104.94</v>
       </c>
       <c r="DV22" t="s" s="11">
         <v>44</v>
@@ -9314,13 +9315,13 @@
         <v>719.838</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>689.692</v>
+        <v>689.215</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>698.947</v>
-      </c>
-      <c r="DU24" t="s" s="11">
-        <v>44</v>
+        <v>701.805</v>
+      </c>
+      <c r="DU24" t="n" s="11">
+        <v>726.371</v>
       </c>
       <c r="DV24" t="s" s="11">
         <v>44</v>
@@ -9694,13 +9695,13 @@
         <v>83.423</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>79.477</v>
+        <v>81.15</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>80.519</v>
-      </c>
-      <c r="DU25" t="s" s="11">
-        <v>44</v>
+        <v>81.796</v>
+      </c>
+      <c r="DU25" t="n" s="11">
+        <v>81.751</v>
       </c>
       <c r="DV25" t="s" s="11">
         <v>44</v>
@@ -10834,13 +10835,13 @@
         <v>803.224</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>769.028</v>
+        <v>770.087</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>779.393</v>
-      </c>
-      <c r="DU28" t="s" s="11">
-        <v>44</v>
+        <v>783.478</v>
+      </c>
+      <c r="DU28" t="n" s="11">
+        <v>808.141</v>
       </c>
       <c r="DV28" t="s" s="11">
         <v>44</v>
@@ -11214,13 +11215,13 @@
         <v>-1.9</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>9.8</v>
-      </c>
-      <c r="DU29" t="s" s="11">
-        <v>44</v>
+        <v>10.4</v>
+      </c>
+      <c r="DU29" t="n" s="11">
+        <v>2.5</v>
       </c>
       <c r="DV29" t="s" s="11">
         <v>44</v>
@@ -11600,7 +11601,7 @@
         <v>47</v>
       </c>
       <c r="DU30" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV30" t="s" s="11">
         <v>44</v>
@@ -11979,13 +11980,13 @@
         <v>771.49</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>756.918</v>
+        <v>756.395</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>767.122</v>
-      </c>
-      <c r="DU32" t="s" s="11">
-        <v>44</v>
+        <v>770.258</v>
+      </c>
+      <c r="DU32" t="n" s="11">
+        <v>797.171</v>
       </c>
       <c r="DV32" t="s" s="11">
         <v>44</v>
@@ -12359,13 +12360,13 @@
         <v>88.255</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>79.392</v>
+        <v>81.065</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>80.434</v>
-      </c>
-      <c r="DU33" t="s" s="11">
-        <v>44</v>
+        <v>81.707</v>
+      </c>
+      <c r="DU33" t="n" s="11">
+        <v>81.664</v>
       </c>
       <c r="DV33" t="s" s="11">
         <v>44</v>
@@ -13499,13 +13500,13 @@
         <v>859.745</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>836.31</v>
+        <v>837.46</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>847.556</v>
-      </c>
-      <c r="DU36" t="s" s="11">
-        <v>44</v>
+        <v>851.965</v>
+      </c>
+      <c r="DU36" t="n" s="11">
+        <v>878.835</v>
       </c>
       <c r="DV36" t="s" s="11">
         <v>44</v>
@@ -13885,7 +13886,7 @@
         <v>47</v>
       </c>
       <c r="DU37" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV37" t="s" s="11">
         <v>44</v>
@@ -14265,7 +14266,7 @@
         <v>47</v>
       </c>
       <c r="DU38" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV38" t="s" s="11">
         <v>44</v>
@@ -14289,118 +14290,118 @@
         <v>43</v>
       </c>
       <c r="C41" t="n" s="11">
-        <v>355.958</v>
+        <v>355.957</v>
       </c>
       <c r="D41" t="n" s="11">
         <v>359.831</v>
       </c>
       <c r="E41" t="n" s="11">
-        <v>360.901</v>
+        <v>360.9</v>
       </c>
       <c r="F41" t="n" s="11">
-        <v>371.285</v>
+        <v>371.287</v>
       </c>
       <c r="G41" t="n" s="11">
-        <v>382.594</v>
+        <v>382.593</v>
       </c>
       <c r="H41" t="n" s="11">
-        <v>385.099</v>
+        <v>385.098</v>
       </c>
       <c r="I41" t="n" s="11">
         <v>388.082</v>
       </c>
       <c r="J41" t="n" s="11">
-        <v>389.68</v>
+        <v>389.682</v>
       </c>
       <c r="K41" t="n" s="11">
-        <v>391.663</v>
+        <v>391.662</v>
       </c>
       <c r="L41" t="n" s="11">
-        <v>396.473</v>
+        <v>396.472</v>
       </c>
       <c r="M41" t="n" s="11">
         <v>397.609</v>
       </c>
       <c r="N41" t="n" s="11">
-        <v>400.556</v>
+        <v>400.558</v>
       </c>
       <c r="O41" t="n" s="11">
         <v>404.83</v>
       </c>
       <c r="P41" t="n" s="11">
-        <v>409.092</v>
+        <v>409.091</v>
       </c>
       <c r="Q41" t="n" s="11">
         <v>414.29</v>
       </c>
       <c r="R41" t="n" s="11">
-        <v>422.463</v>
+        <v>422.464</v>
       </c>
       <c r="S41" t="n" s="11">
-        <v>421.491</v>
+        <v>421.49</v>
       </c>
       <c r="T41" t="n" s="11">
-        <v>428.974</v>
+        <v>428.975</v>
       </c>
       <c r="U41" t="n" s="11">
-        <v>432.154</v>
+        <v>432.152</v>
       </c>
       <c r="V41" t="n" s="11">
-        <v>434.365</v>
+        <v>434.366</v>
       </c>
       <c r="W41" t="n" s="11">
-        <v>427.767</v>
+        <v>427.766</v>
       </c>
       <c r="X41" t="n" s="11">
-        <v>435.69</v>
+        <v>435.693</v>
       </c>
       <c r="Y41" t="n" s="11">
-        <v>436.901</v>
+        <v>436.899</v>
       </c>
       <c r="Z41" t="n" s="11">
-        <v>442.338</v>
+        <v>442.337</v>
       </c>
       <c r="AA41" t="n" s="11">
-        <v>438.088</v>
+        <v>438.086</v>
       </c>
       <c r="AB41" t="n" s="11">
-        <v>443.294</v>
+        <v>443.3</v>
       </c>
       <c r="AC41" t="n" s="11">
-        <v>447.519</v>
+        <v>447.517</v>
       </c>
       <c r="AD41" t="n" s="11">
         <v>452.621</v>
       </c>
       <c r="AE41" t="n" s="11">
-        <v>454.927</v>
+        <v>454.926</v>
       </c>
       <c r="AF41" t="n" s="11">
-        <v>454.011</v>
+        <v>454.014</v>
       </c>
       <c r="AG41" t="n" s="11">
-        <v>457.168</v>
+        <v>457.166</v>
       </c>
       <c r="AH41" t="n" s="11">
-        <v>457.773</v>
+        <v>457.771</v>
       </c>
       <c r="AI41" t="n" s="11">
-        <v>459.251</v>
+        <v>459.25</v>
       </c>
       <c r="AJ41" t="n" s="11">
-        <v>460.669</v>
+        <v>460.671</v>
       </c>
       <c r="AK41" t="n" s="11">
-        <v>464.632</v>
+        <v>464.631</v>
       </c>
       <c r="AL41" t="n" s="11">
-        <v>467.273</v>
+        <v>467.272</v>
       </c>
       <c r="AM41" t="n" s="11">
         <v>472.546</v>
       </c>
       <c r="AN41" t="n" s="11">
-        <v>474.534</v>
+        <v>474.533</v>
       </c>
       <c r="AO41" t="n" s="11">
         <v>477.612</v>
@@ -14409,19 +14410,19 @@
         <v>477.097</v>
       </c>
       <c r="AQ41" t="n" s="11">
-        <v>489.217</v>
+        <v>489.219</v>
       </c>
       <c r="AR41" t="n" s="11">
-        <v>487.129</v>
+        <v>487.128</v>
       </c>
       <c r="AS41" t="n" s="11">
-        <v>491.759</v>
+        <v>491.758</v>
       </c>
       <c r="AT41" t="n" s="11">
-        <v>497.142</v>
+        <v>497.141</v>
       </c>
       <c r="AU41" t="n" s="11">
-        <v>494.435</v>
+        <v>494.437</v>
       </c>
       <c r="AV41" t="n" s="11">
         <v>493.456</v>
@@ -14430,7 +14431,7 @@
         <v>500.476</v>
       </c>
       <c r="AX41" t="n" s="11">
-        <v>502.199</v>
+        <v>502.198</v>
       </c>
       <c r="AY41" t="n" s="11">
         <v>495.665</v>
@@ -14442,34 +14443,34 @@
         <v>503.716</v>
       </c>
       <c r="BB41" t="n" s="11">
-        <v>505.227</v>
+        <v>505.226</v>
       </c>
       <c r="BC41" t="n" s="11">
         <v>505.72</v>
       </c>
       <c r="BD41" t="n" s="11">
-        <v>513.512</v>
+        <v>513.513</v>
       </c>
       <c r="BE41" t="n" s="11">
         <v>511.498</v>
       </c>
       <c r="BF41" t="n" s="11">
-        <v>511.468</v>
+        <v>511.467</v>
       </c>
       <c r="BG41" t="n" s="11">
-        <v>512.508</v>
+        <v>512.509</v>
       </c>
       <c r="BH41" t="n" s="11">
-        <v>515.044</v>
+        <v>515.043</v>
       </c>
       <c r="BI41" t="n" s="11">
-        <v>517.989</v>
+        <v>517.99</v>
       </c>
       <c r="BJ41" t="n" s="11">
-        <v>520.576</v>
+        <v>520.575</v>
       </c>
       <c r="BK41" t="n" s="11">
-        <v>526.173</v>
+        <v>526.174</v>
       </c>
       <c r="BL41" t="n" s="11">
         <v>537.998</v>
@@ -14478,31 +14479,31 @@
         <v>542.254</v>
       </c>
       <c r="BN41" t="n" s="11">
-        <v>551.09</v>
+        <v>551.089</v>
       </c>
       <c r="BO41" t="n" s="11">
-        <v>552.974</v>
+        <v>552.975</v>
       </c>
       <c r="BP41" t="n" s="11">
-        <v>561.281</v>
+        <v>561.282</v>
       </c>
       <c r="BQ41" t="n" s="11">
         <v>565.29</v>
       </c>
       <c r="BR41" t="n" s="11">
-        <v>571.492</v>
+        <v>571.491</v>
       </c>
       <c r="BS41" t="n" s="11">
         <v>574.748</v>
       </c>
       <c r="BT41" t="n" s="11">
-        <v>575.436</v>
+        <v>575.437</v>
       </c>
       <c r="BU41" t="n" s="11">
         <v>571.661</v>
       </c>
       <c r="BV41" t="n" s="11">
-        <v>564.032</v>
+        <v>564.031</v>
       </c>
       <c r="BW41" t="n" s="11">
         <v>540.82</v>
@@ -14517,10 +14518,10 @@
         <v>555.717</v>
       </c>
       <c r="CA41" t="n" s="11">
-        <v>564.368</v>
+        <v>564.367</v>
       </c>
       <c r="CB41" t="n" s="11">
-        <v>570.093</v>
+        <v>570.092</v>
       </c>
       <c r="CC41" t="n" s="11">
         <v>579.726</v>
@@ -14529,133 +14530,133 @@
         <v>585.728</v>
       </c>
       <c r="CE41" t="n" s="11">
-        <v>596.974</v>
+        <v>596.972</v>
       </c>
       <c r="CF41" t="n" s="11">
-        <v>599.016</v>
+        <v>599.015</v>
       </c>
       <c r="CG41" t="n" s="11">
-        <v>607.865</v>
+        <v>607.866</v>
       </c>
       <c r="CH41" t="n" s="11">
-        <v>610.162</v>
+        <v>610.163</v>
       </c>
       <c r="CI41" t="n" s="11">
-        <v>610.86</v>
+        <v>610.859</v>
       </c>
       <c r="CJ41" t="n" s="11">
-        <v>614.374</v>
+        <v>614.373</v>
       </c>
       <c r="CK41" t="n" s="11">
-        <v>620.569</v>
+        <v>620.57</v>
       </c>
       <c r="CL41" t="n" s="11">
-        <v>621.106</v>
+        <v>621.107</v>
       </c>
       <c r="CM41" t="n" s="11">
-        <v>623.186</v>
+        <v>623.185</v>
       </c>
       <c r="CN41" t="n" s="11">
-        <v>630.286</v>
+        <v>630.285</v>
       </c>
       <c r="CO41" t="n" s="11">
         <v>636.861</v>
       </c>
       <c r="CP41" t="n" s="11">
-        <v>641.913</v>
+        <v>641.915</v>
       </c>
       <c r="CQ41" t="n" s="11">
-        <v>653.861</v>
+        <v>653.858</v>
       </c>
       <c r="CR41" t="n" s="11">
-        <v>655.718</v>
+        <v>655.717</v>
       </c>
       <c r="CS41" t="n" s="11">
         <v>661.627</v>
       </c>
       <c r="CT41" t="n" s="11">
-        <v>668.428</v>
+        <v>668.432</v>
       </c>
       <c r="CU41" t="n" s="11">
-        <v>670.97</v>
+        <v>670.967</v>
       </c>
       <c r="CV41" t="n" s="11">
-        <v>678.319</v>
+        <v>678.317</v>
       </c>
       <c r="CW41" t="n" s="11">
         <v>683.153</v>
       </c>
       <c r="CX41" t="n" s="11">
-        <v>686.507</v>
+        <v>686.512</v>
       </c>
       <c r="CY41" t="n" s="11">
-        <v>696.544</v>
+        <v>696.541</v>
       </c>
       <c r="CZ41" t="n" s="11">
-        <v>702.991</v>
+        <v>702.989</v>
       </c>
       <c r="DA41" t="n" s="11">
-        <v>705.918</v>
+        <v>705.917</v>
       </c>
       <c r="DB41" t="n" s="11">
-        <v>711.2</v>
+        <v>711.204</v>
       </c>
       <c r="DC41" t="n" s="11">
-        <v>720.034</v>
+        <v>720.032</v>
       </c>
       <c r="DD41" t="n" s="11">
-        <v>732.408</v>
+        <v>732.403</v>
       </c>
       <c r="DE41" t="n" s="11">
         <v>743.154</v>
       </c>
       <c r="DF41" t="n" s="11">
-        <v>752.245</v>
+        <v>752.252</v>
       </c>
       <c r="DG41" t="n" s="11">
         <v>750.34</v>
       </c>
       <c r="DH41" t="n" s="11">
-        <v>759.286</v>
+        <v>759.277</v>
       </c>
       <c r="DI41" t="n" s="11">
-        <v>759.49</v>
+        <v>759.489</v>
       </c>
       <c r="DJ41" t="n" s="11">
-        <v>770.619</v>
+        <v>770.63</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>777.587</v>
+        <v>777.561</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>779.612</v>
+        <v>779.586</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>785.92</v>
+        <v>785.966</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>793.404</v>
+        <v>793.422</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>784.011</v>
+        <v>783.998</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>706.068</v>
+        <v>706.049</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>772.397</v>
+        <v>772.413</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>780.537</v>
+        <v>780.578</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>780.611</v>
+        <v>780.569</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>785.462</v>
-      </c>
-      <c r="DU41" t="s" s="11">
-        <v>44</v>
+        <v>788.253</v>
+      </c>
+      <c r="DU41" t="n" s="11">
+        <v>816.873</v>
       </c>
       <c r="DV41" t="s" s="11">
         <v>44</v>
@@ -14669,118 +14670,118 @@
         <v>43</v>
       </c>
       <c r="C42" t="n" s="11">
-        <v>32.605</v>
+        <v>32.606</v>
       </c>
       <c r="D42" t="n" s="11">
         <v>35.197</v>
       </c>
       <c r="E42" t="n" s="11">
-        <v>35.776</v>
+        <v>35.777</v>
       </c>
       <c r="F42" t="n" s="11">
-        <v>39.223</v>
+        <v>39.221</v>
       </c>
       <c r="G42" t="n" s="11">
-        <v>37.995</v>
+        <v>37.996</v>
       </c>
       <c r="H42" t="n" s="11">
-        <v>38.13</v>
+        <v>38.131</v>
       </c>
       <c r="I42" t="n" s="11">
         <v>37.954</v>
       </c>
       <c r="J42" t="n" s="11">
-        <v>40.749</v>
+        <v>40.747</v>
       </c>
       <c r="K42" t="n" s="11">
-        <v>39.279</v>
+        <v>39.28</v>
       </c>
       <c r="L42" t="n" s="11">
-        <v>39.867</v>
+        <v>39.868</v>
       </c>
       <c r="M42" t="n" s="11">
         <v>41.604</v>
       </c>
       <c r="N42" t="n" s="11">
-        <v>41.797</v>
+        <v>41.795</v>
       </c>
       <c r="O42" t="n" s="11">
         <v>46.168</v>
       </c>
       <c r="P42" t="n" s="11">
-        <v>44.08</v>
+        <v>44.081</v>
       </c>
       <c r="Q42" t="n" s="11">
         <v>44.198</v>
       </c>
       <c r="R42" t="n" s="11">
-        <v>43.515</v>
+        <v>43.514</v>
       </c>
       <c r="S42" t="n" s="11">
-        <v>45.242</v>
+        <v>45.243</v>
       </c>
       <c r="T42" t="n" s="11">
-        <v>45.013</v>
+        <v>45.012</v>
       </c>
       <c r="U42" t="n" s="11">
-        <v>44.655</v>
+        <v>44.657</v>
       </c>
       <c r="V42" t="n" s="11">
-        <v>43.151</v>
+        <v>43.15</v>
       </c>
       <c r="W42" t="n" s="11">
-        <v>45.989</v>
+        <v>45.99</v>
       </c>
       <c r="X42" t="n" s="11">
-        <v>44.308</v>
+        <v>44.305</v>
       </c>
       <c r="Y42" t="n" s="11">
-        <v>45.548</v>
+        <v>45.55</v>
       </c>
       <c r="Z42" t="n" s="11">
-        <v>43.855</v>
+        <v>43.856</v>
       </c>
       <c r="AA42" t="n" s="11">
-        <v>46.008</v>
+        <v>46.01</v>
       </c>
       <c r="AB42" t="n" s="11">
-        <v>45.923</v>
+        <v>45.917</v>
       </c>
       <c r="AC42" t="n" s="11">
-        <v>46.039</v>
+        <v>46.041</v>
       </c>
       <c r="AD42" t="n" s="11">
         <v>44.072</v>
       </c>
       <c r="AE42" t="n" s="11">
-        <v>46.895</v>
+        <v>46.896</v>
       </c>
       <c r="AF42" t="n" s="11">
-        <v>47.831</v>
+        <v>47.828</v>
       </c>
       <c r="AG42" t="n" s="11">
-        <v>47.522</v>
+        <v>47.524</v>
       </c>
       <c r="AH42" t="n" s="11">
-        <v>46.293</v>
+        <v>46.295</v>
       </c>
       <c r="AI42" t="n" s="11">
-        <v>50.416</v>
+        <v>50.417</v>
       </c>
       <c r="AJ42" t="n" s="11">
-        <v>50.059</v>
+        <v>50.057</v>
       </c>
       <c r="AK42" t="n" s="11">
-        <v>51.002</v>
+        <v>51.003</v>
       </c>
       <c r="AL42" t="n" s="11">
-        <v>51.386</v>
+        <v>51.387</v>
       </c>
       <c r="AM42" t="n" s="11">
         <v>51.901</v>
       </c>
       <c r="AN42" t="n" s="11">
-        <v>53.236</v>
+        <v>53.237</v>
       </c>
       <c r="AO42" t="n" s="11">
         <v>51.539</v>
@@ -14789,19 +14790,19 @@
         <v>50.579</v>
       </c>
       <c r="AQ42" t="n" s="11">
-        <v>52.316</v>
+        <v>52.314</v>
       </c>
       <c r="AR42" t="n" s="11">
-        <v>54.191</v>
+        <v>54.192</v>
       </c>
       <c r="AS42" t="n" s="11">
-        <v>52.439</v>
+        <v>52.44</v>
       </c>
       <c r="AT42" t="n" s="11">
-        <v>51.026</v>
+        <v>51.027</v>
       </c>
       <c r="AU42" t="n" s="11">
-        <v>51.802</v>
+        <v>51.8</v>
       </c>
       <c r="AV42" t="n" s="11">
         <v>53.263</v>
@@ -14810,7 +14811,7 @@
         <v>53.916</v>
       </c>
       <c r="AX42" t="n" s="11">
-        <v>52.048</v>
+        <v>52.049</v>
       </c>
       <c r="AY42" t="n" s="11">
         <v>53.406</v>
@@ -14822,34 +14823,34 @@
         <v>53.417</v>
       </c>
       <c r="BB42" t="n" s="11">
-        <v>53.251</v>
+        <v>53.252</v>
       </c>
       <c r="BC42" t="n" s="11">
         <v>54.318</v>
       </c>
       <c r="BD42" t="n" s="11">
-        <v>52.5</v>
+        <v>52.499</v>
       </c>
       <c r="BE42" t="n" s="11">
         <v>53.489</v>
       </c>
       <c r="BF42" t="n" s="11">
-        <v>52.516</v>
+        <v>52.517</v>
       </c>
       <c r="BG42" t="n" s="11">
-        <v>52.745</v>
+        <v>52.744</v>
       </c>
       <c r="BH42" t="n" s="11">
-        <v>53.518</v>
+        <v>53.519</v>
       </c>
       <c r="BI42" t="n" s="11">
-        <v>55.661</v>
+        <v>55.66</v>
       </c>
       <c r="BJ42" t="n" s="11">
-        <v>56.667</v>
+        <v>56.668</v>
       </c>
       <c r="BK42" t="n" s="11">
-        <v>55.666</v>
+        <v>55.665</v>
       </c>
       <c r="BL42" t="n" s="11">
         <v>56.34</v>
@@ -14858,31 +14859,31 @@
         <v>56.765</v>
       </c>
       <c r="BN42" t="n" s="11">
-        <v>59.271</v>
+        <v>59.272</v>
       </c>
       <c r="BO42" t="n" s="11">
-        <v>63.035</v>
+        <v>63.034</v>
       </c>
       <c r="BP42" t="n" s="11">
-        <v>61.989</v>
+        <v>61.988</v>
       </c>
       <c r="BQ42" t="n" s="11">
         <v>63.209</v>
       </c>
       <c r="BR42" t="n" s="11">
-        <v>63.462</v>
+        <v>63.463</v>
       </c>
       <c r="BS42" t="n" s="11">
         <v>63.839</v>
       </c>
       <c r="BT42" t="n" s="11">
-        <v>63.613</v>
+        <v>63.612</v>
       </c>
       <c r="BU42" t="n" s="11">
         <v>64.632</v>
       </c>
       <c r="BV42" t="n" s="11">
-        <v>64.83</v>
+        <v>64.831</v>
       </c>
       <c r="BW42" t="n" s="11">
         <v>62.792</v>
@@ -14897,10 +14898,10 @@
         <v>63.896</v>
       </c>
       <c r="CA42" t="n" s="11">
-        <v>60.581</v>
+        <v>60.582</v>
       </c>
       <c r="CB42" t="n" s="11">
-        <v>65.329</v>
+        <v>65.33</v>
       </c>
       <c r="CC42" t="n" s="11">
         <v>65.97</v>
@@ -14909,133 +14910,133 @@
         <v>66.791</v>
       </c>
       <c r="CE42" t="n" s="11">
-        <v>68.207</v>
+        <v>68.209</v>
       </c>
       <c r="CF42" t="n" s="11">
-        <v>69.213</v>
+        <v>69.214</v>
       </c>
       <c r="CG42" t="n" s="11">
-        <v>68.933</v>
+        <v>68.932</v>
       </c>
       <c r="CH42" t="n" s="11">
-        <v>69.043</v>
+        <v>69.042</v>
       </c>
       <c r="CI42" t="n" s="11">
-        <v>69.825</v>
+        <v>69.826</v>
       </c>
       <c r="CJ42" t="n" s="11">
-        <v>69.281</v>
+        <v>69.282</v>
       </c>
       <c r="CK42" t="n" s="11">
-        <v>69.839</v>
+        <v>69.838</v>
       </c>
       <c r="CL42" t="n" s="11">
-        <v>70.49</v>
+        <v>70.489</v>
       </c>
       <c r="CM42" t="n" s="11">
-        <v>69.111</v>
+        <v>69.112</v>
       </c>
       <c r="CN42" t="n" s="11">
-        <v>71.492</v>
+        <v>71.493</v>
       </c>
       <c r="CO42" t="n" s="11">
         <v>72.167</v>
       </c>
       <c r="CP42" t="n" s="11">
-        <v>70.79</v>
+        <v>70.788</v>
       </c>
       <c r="CQ42" t="n" s="11">
-        <v>71.414</v>
+        <v>71.417</v>
       </c>
       <c r="CR42" t="n" s="11">
-        <v>73.346</v>
+        <v>73.347</v>
       </c>
       <c r="CS42" t="n" s="11">
         <v>73.147</v>
       </c>
       <c r="CT42" t="n" s="11">
-        <v>74.111</v>
+        <v>74.107</v>
       </c>
       <c r="CU42" t="n" s="11">
-        <v>74.256</v>
+        <v>74.259</v>
       </c>
       <c r="CV42" t="n" s="11">
-        <v>75.384</v>
+        <v>75.386</v>
       </c>
       <c r="CW42" t="n" s="11">
         <v>76.5</v>
       </c>
       <c r="CX42" t="n" s="11">
-        <v>78.008</v>
+        <v>78.003</v>
       </c>
       <c r="CY42" t="n" s="11">
-        <v>77.812</v>
+        <v>77.815</v>
       </c>
       <c r="CZ42" t="n" s="11">
-        <v>77.299</v>
+        <v>77.301</v>
       </c>
       <c r="DA42" t="n" s="11">
-        <v>78.36</v>
+        <v>78.361</v>
       </c>
       <c r="DB42" t="n" s="11">
-        <v>78.791</v>
+        <v>78.787</v>
       </c>
       <c r="DC42" t="n" s="11">
-        <v>81.613</v>
+        <v>81.615</v>
       </c>
       <c r="DD42" t="n" s="11">
-        <v>80.288</v>
+        <v>80.293</v>
       </c>
       <c r="DE42" t="n" s="11">
         <v>80.414</v>
       </c>
       <c r="DF42" t="n" s="11">
-        <v>80.841</v>
+        <v>80.834</v>
       </c>
       <c r="DG42" t="n" s="11">
         <v>82.974</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>83.067</v>
+        <v>83.076</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>83.572</v>
+        <v>83.573</v>
       </c>
       <c r="DJ42" t="n" s="11">
-        <v>82.995</v>
+        <v>82.984</v>
       </c>
       <c r="DK42" t="n" s="11">
-        <v>85.297</v>
+        <v>85.323</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>84.725</v>
+        <v>84.751</v>
       </c>
       <c r="DM42" t="n" s="11">
-        <v>87.075</v>
+        <v>87.029</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>85.592</v>
+        <v>85.574</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>83.061</v>
+        <v>83.074</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>79.398</v>
+        <v>79.417</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>76.459</v>
+        <v>76.443</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>78.293</v>
+        <v>78.252</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>76.127</v>
+        <v>76.117</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>83.213</v>
-      </c>
-      <c r="DU42" t="s" s="11">
-        <v>44</v>
+        <v>84.377</v>
+      </c>
+      <c r="DU42" t="n" s="11">
+        <v>92.366</v>
       </c>
       <c r="DV42" t="s" s="11">
         <v>44</v>
@@ -16169,13 +16170,13 @@
         <v>858.83</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>856.738</v>
+        <v>856.686</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>868.675</v>
-      </c>
-      <c r="DU45" t="s" s="11">
-        <v>44</v>
+        <v>872.63</v>
+      </c>
+      <c r="DU45" t="n" s="11">
+        <v>909.239</v>
       </c>
       <c r="DV45" t="s" s="11">
         <v>44</v>
@@ -16552,10 +16553,10 @@
         <v>-0.2</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="DU46" t="s" s="11">
-        <v>44</v>
+        <v>1.9</v>
+      </c>
+      <c r="DU46" t="n" s="11">
+        <v>4.2</v>
       </c>
       <c r="DV46" t="s" s="11">
         <v>44</v>
@@ -16929,13 +16930,13 @@
         <v>10328.0</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>10306.0</v>
+        <v>10305.0</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>10448.0</v>
-      </c>
-      <c r="DU47" t="s" s="11">
-        <v>44</v>
+        <v>10496.0</v>
+      </c>
+      <c r="DU47" t="n" s="11">
+        <v>10934.0</v>
       </c>
       <c r="DV47" t="s" s="11">
         <v>44</v>
@@ -17227,7 +17228,7 @@
         <v>97.13</v>
       </c>
       <c r="CP49" t="n" s="11">
-        <v>97.71</v>
+        <v>97.72</v>
       </c>
       <c r="CQ49" t="n" s="11">
         <v>98.68</v>
@@ -17269,7 +17270,7 @@
         <v>103.76</v>
       </c>
       <c r="DD49" t="n" s="11">
-        <v>104.72</v>
+        <v>104.71</v>
       </c>
       <c r="DE49" t="n" s="11">
         <v>105.82</v>
@@ -17284,25 +17285,25 @@
         <v>106.63</v>
       </c>
       <c r="DI49" t="n" s="11">
-        <v>106.19</v>
+        <v>106.2</v>
       </c>
       <c r="DJ49" t="n" s="11">
         <v>106.66</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>107.91</v>
+        <v>107.9</v>
       </c>
       <c r="DL49" t="n" s="11">
         <v>107.21</v>
       </c>
       <c r="DM49" t="n" s="11">
-        <v>107.47</v>
+        <v>107.48</v>
       </c>
       <c r="DN49" t="n" s="11">
-        <v>107.45</v>
+        <v>107.46</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>106.1</v>
+        <v>106.09</v>
       </c>
       <c r="DP49" t="n" s="11">
         <v>94.51</v>
@@ -17311,16 +17312,16 @@
         <v>103.21</v>
       </c>
       <c r="DR49" t="n" s="11">
-        <v>103.63</v>
+        <v>103.64</v>
       </c>
       <c r="DS49" t="n" s="11">
-        <v>102.55</v>
+        <v>102.48</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>103.53</v>
-      </c>
-      <c r="DU49" t="s" s="11">
-        <v>44</v>
+        <v>103.94</v>
+      </c>
+      <c r="DU49" t="n" s="11">
+        <v>105.93</v>
       </c>
       <c r="DV49" t="s" s="11">
         <v>44</v>
@@ -17346,7 +17347,7 @@
         <v>88.5</v>
       </c>
       <c r="G50" t="n" s="11">
-        <v>89.47</v>
+        <v>89.46</v>
       </c>
       <c r="H50" t="n" s="11">
         <v>89.15</v>
@@ -17418,7 +17419,7 @@
         <v>89.19</v>
       </c>
       <c r="AE50" t="n" s="11">
-        <v>93.69</v>
+        <v>93.68</v>
       </c>
       <c r="AF50" t="n" s="11">
         <v>92.18</v>
@@ -17427,7 +17428,7 @@
         <v>92.13</v>
       </c>
       <c r="AH50" t="n" s="11">
-        <v>89.93</v>
+        <v>89.94</v>
       </c>
       <c r="AI50" t="n" s="11">
         <v>96.07</v>
@@ -17451,7 +17452,7 @@
         <v>94.56</v>
       </c>
       <c r="AP50" t="n" s="11">
-        <v>93.11</v>
+        <v>93.12</v>
       </c>
       <c r="AQ50" t="n" s="11">
         <v>93.93</v>
@@ -17469,10 +17470,10 @@
         <v>89.99</v>
       </c>
       <c r="AV50" t="n" s="11">
-        <v>91.4</v>
+        <v>91.41</v>
       </c>
       <c r="AW50" t="n" s="11">
-        <v>93.99</v>
+        <v>94.0</v>
       </c>
       <c r="AX50" t="n" s="11">
         <v>90.68</v>
@@ -17502,7 +17503,7 @@
         <v>86.97</v>
       </c>
       <c r="BG50" t="n" s="11">
-        <v>86.79</v>
+        <v>86.78</v>
       </c>
       <c r="BH50" t="n" s="11">
         <v>87.92</v>
@@ -17541,7 +17542,7 @@
         <v>89.38</v>
       </c>
       <c r="BT50" t="n" s="11">
-        <v>88.74</v>
+        <v>88.73</v>
       </c>
       <c r="BU50" t="n" s="11">
         <v>89.23</v>
@@ -17559,7 +17560,7 @@
         <v>88.21</v>
       </c>
       <c r="BZ50" t="n" s="11">
-        <v>89.79</v>
+        <v>89.78</v>
       </c>
       <c r="CA50" t="n" s="11">
         <v>85.06</v>
@@ -17607,7 +17608,7 @@
         <v>95.94</v>
       </c>
       <c r="CP50" t="n" s="11">
-        <v>93.72</v>
+        <v>93.64</v>
       </c>
       <c r="CQ50" t="n" s="11">
         <v>94.1</v>
@@ -17619,7 +17620,7 @@
         <v>96.28</v>
       </c>
       <c r="CT50" t="n" s="11">
-        <v>97.61</v>
+        <v>97.6</v>
       </c>
       <c r="CU50" t="n" s="11">
         <v>98.05</v>
@@ -17634,7 +17635,7 @@
         <v>102.58</v>
       </c>
       <c r="CY50" t="n" s="11">
-        <v>102.09</v>
+        <v>102.1</v>
       </c>
       <c r="CZ50" t="n" s="11">
         <v>101.44</v>
@@ -17649,13 +17650,13 @@
         <v>104.26</v>
       </c>
       <c r="DD50" t="n" s="11">
-        <v>103.72</v>
+        <v>103.8</v>
       </c>
       <c r="DE50" t="n" s="11">
         <v>103.01</v>
       </c>
       <c r="DF50" t="n" s="11">
-        <v>103.87</v>
+        <v>103.86</v>
       </c>
       <c r="DG50" t="n" s="11">
         <v>103.58</v>
@@ -17664,25 +17665,25 @@
         <v>105.53</v>
       </c>
       <c r="DI50" t="n" s="11">
-        <v>104.98</v>
+        <v>104.9</v>
       </c>
       <c r="DJ50" t="n" s="11">
-        <v>104.85</v>
+        <v>104.86</v>
       </c>
       <c r="DK50" t="n" s="11">
-        <v>104.81</v>
+        <v>104.9</v>
       </c>
       <c r="DL50" t="n" s="11">
-        <v>105.81</v>
+        <v>105.8</v>
       </c>
       <c r="DM50" t="n" s="11">
-        <v>107.86</v>
+        <v>107.78</v>
       </c>
       <c r="DN50" t="n" s="11">
-        <v>107.24</v>
+        <v>107.15</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>100.47</v>
+        <v>100.56</v>
       </c>
       <c r="DP50" t="n" s="11">
         <v>99.34</v>
@@ -17691,16 +17692,16 @@
         <v>106.93</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>110.88</v>
+        <v>110.79</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>99.21</v>
+        <v>101.42</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>107.66</v>
-      </c>
-      <c r="DU50" t="s" s="11">
-        <v>44</v>
+        <v>109.48</v>
+      </c>
+      <c r="DU50" t="n" s="11">
+        <v>109.09</v>
       </c>
       <c r="DV50" t="s" s="11">
         <v>44</v>
@@ -18834,13 +18835,13 @@
         <v>104.35</v>
       </c>
       <c r="DS53" t="n" s="11">
-        <v>102.26</v>
+        <v>102.4</v>
       </c>
       <c r="DT53" t="n" s="11">
-        <v>103.93</v>
-      </c>
-      <c r="DU53" t="s" s="11">
-        <v>44</v>
+        <v>104.47</v>
+      </c>
+      <c r="DU53" t="n" s="11">
+        <v>106.24</v>
       </c>
       <c r="DV53" t="s" s="11">
         <v>44</v>
@@ -19214,13 +19215,13 @@
         <v>0.7</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="DU54" t="s" s="11">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="DU54" t="n" s="11">
+        <v>1.7</v>
       </c>
       <c r="DV54" t="s" s="11">
         <v>44</v>
@@ -19594,13 +19595,13 @@
         <v>102.49</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>100.48</v>
+        <v>100.62</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>102.1</v>
-      </c>
-      <c r="DU55" t="s" s="11">
-        <v>44</v>
+        <v>102.63</v>
+      </c>
+      <c r="DU55" t="n" s="11">
+        <v>104.36</v>
       </c>
       <c r="DV55" t="s" s="11">
         <v>44</v>
@@ -19883,16 +19884,16 @@
         <v>653.489</v>
       </c>
       <c r="CM57" t="n" s="11">
-        <v>651.72</v>
+        <v>651.703</v>
       </c>
       <c r="CN57" t="n" s="11">
-        <v>657.164</v>
+        <v>657.147</v>
       </c>
       <c r="CO57" t="n" s="11">
-        <v>660.975</v>
+        <v>660.957</v>
       </c>
       <c r="CP57" t="n" s="11">
-        <v>664.921</v>
+        <v>664.972</v>
       </c>
       <c r="CQ57" t="n" s="11">
         <v>671.522</v>
@@ -19931,61 +19932,61 @@
         <v>697.994</v>
       </c>
       <c r="DC57" t="n" s="11">
-        <v>706.075</v>
+        <v>706.092</v>
       </c>
       <c r="DD57" t="n" s="11">
-        <v>712.608</v>
+        <v>712.557</v>
       </c>
       <c r="DE57" t="n" s="11">
-        <v>720.093</v>
+        <v>720.11</v>
       </c>
       <c r="DF57" t="n" s="11">
-        <v>725.877</v>
+        <v>725.895</v>
       </c>
       <c r="DG57" t="n" s="11">
-        <v>722.628</v>
+        <v>722.611</v>
       </c>
       <c r="DH57" t="n" s="11">
-        <v>725.623</v>
+        <v>725.605</v>
       </c>
       <c r="DI57" t="n" s="11">
-        <v>722.628</v>
+        <v>722.679</v>
       </c>
       <c r="DJ57" t="n" s="11">
-        <v>725.827</v>
+        <v>725.81</v>
       </c>
       <c r="DK57" t="n" s="11">
-        <v>734.35</v>
+        <v>734.265</v>
       </c>
       <c r="DL57" t="n" s="11">
-        <v>729.586</v>
+        <v>729.569</v>
       </c>
       <c r="DM57" t="n" s="11">
-        <v>731.356</v>
+        <v>731.407</v>
       </c>
       <c r="DN57" t="n" s="11">
-        <v>731.22</v>
+        <v>731.271</v>
       </c>
       <c r="DO57" t="n" s="11">
-        <v>722.016</v>
+        <v>721.93</v>
       </c>
       <c r="DP57" t="n" s="11">
-        <v>643.145</v>
+        <v>643.129</v>
       </c>
       <c r="DQ57" t="n" s="11">
-        <v>702.349</v>
+        <v>702.332</v>
       </c>
       <c r="DR57" t="n" s="11">
-        <v>705.207</v>
+        <v>705.258</v>
       </c>
       <c r="DS57" t="n" s="11">
-        <v>697.858</v>
+        <v>697.364</v>
       </c>
       <c r="DT57" t="n" s="11">
-        <v>704.527</v>
-      </c>
-      <c r="DU57" t="s" s="11">
-        <v>44</v>
+        <v>707.3</v>
+      </c>
+      <c r="DU57" t="n" s="11">
+        <v>720.841</v>
       </c>
       <c r="DV57" t="s" s="11">
         <v>44</v>
@@ -20011,16 +20012,16 @@
         <v>67.27</v>
       </c>
       <c r="G58" t="n" s="11">
-        <v>67.983</v>
+        <v>67.978</v>
       </c>
       <c r="H58" t="n" s="11">
-        <v>67.74</v>
+        <v>67.742</v>
       </c>
       <c r="I58" t="n" s="11">
-        <v>66.806</v>
+        <v>66.808</v>
       </c>
       <c r="J58" t="n" s="11">
-        <v>68.683</v>
+        <v>68.684</v>
       </c>
       <c r="K58" t="n" s="11">
         <v>66.049</v>
@@ -20083,7 +20084,7 @@
         <v>67.846</v>
       </c>
       <c r="AE58" t="n" s="11">
-        <v>71.221</v>
+        <v>71.213</v>
       </c>
       <c r="AF58" t="n" s="11">
         <v>70.073</v>
@@ -20092,7 +20093,7 @@
         <v>70.035</v>
       </c>
       <c r="AH58" t="n" s="11">
-        <v>68.362</v>
+        <v>68.37</v>
       </c>
       <c r="AI58" t="n" s="11">
         <v>73.006</v>
@@ -20107,16 +20108,16 @@
         <v>73.332</v>
       </c>
       <c r="AM58" t="n" s="11">
-        <v>72.489</v>
+        <v>72.487</v>
       </c>
       <c r="AN58" t="n" s="11">
-        <v>74.162</v>
+        <v>74.16</v>
       </c>
       <c r="AO58" t="n" s="11">
-        <v>71.926</v>
+        <v>71.924</v>
       </c>
       <c r="AP58" t="n" s="11">
-        <v>70.823</v>
+        <v>70.829</v>
       </c>
       <c r="AQ58" t="n" s="11">
         <v>71.466</v>
@@ -20131,16 +20132,16 @@
         <v>69.655</v>
       </c>
       <c r="AU58" t="n" s="11">
-        <v>68.393</v>
+        <v>68.389</v>
       </c>
       <c r="AV58" t="n" s="11">
-        <v>69.464</v>
+        <v>69.468</v>
       </c>
       <c r="AW58" t="n" s="11">
-        <v>71.433</v>
+        <v>71.437</v>
       </c>
       <c r="AX58" t="n" s="11">
-        <v>68.917</v>
+        <v>68.914</v>
       </c>
       <c r="AY58" t="n" s="11">
         <v>67.972</v>
@@ -20167,16 +20168,16 @@
         <v>66.134</v>
       </c>
       <c r="BG58" t="n" s="11">
-        <v>65.991</v>
+        <v>65.986</v>
       </c>
       <c r="BH58" t="n" s="11">
-        <v>66.851</v>
+        <v>66.852</v>
       </c>
       <c r="BI58" t="n" s="11">
-        <v>68.835</v>
+        <v>68.837</v>
       </c>
       <c r="BJ58" t="n" s="11">
-        <v>67.36</v>
+        <v>67.362</v>
       </c>
       <c r="BK58" t="n" s="11">
         <v>68.49</v>
@@ -20203,28 +20204,28 @@
         <v>67.309</v>
       </c>
       <c r="BS58" t="n" s="11">
-        <v>67.949</v>
+        <v>67.951</v>
       </c>
       <c r="BT58" t="n" s="11">
-        <v>67.463</v>
+        <v>67.457</v>
       </c>
       <c r="BU58" t="n" s="11">
-        <v>67.835</v>
+        <v>67.837</v>
       </c>
       <c r="BV58" t="n" s="11">
-        <v>68.2</v>
+        <v>68.202</v>
       </c>
       <c r="BW58" t="n" s="11">
-        <v>66.191</v>
+        <v>66.193</v>
       </c>
       <c r="BX58" t="n" s="11">
-        <v>67.065</v>
+        <v>67.067</v>
       </c>
       <c r="BY58" t="n" s="11">
-        <v>67.058</v>
+        <v>67.06</v>
       </c>
       <c r="BZ58" t="n" s="11">
-        <v>68.259</v>
+        <v>68.253</v>
       </c>
       <c r="CA58" t="n" s="11">
         <v>64.664</v>
@@ -20263,28 +20264,28 @@
         <v>71.89</v>
       </c>
       <c r="CM58" t="n" s="11">
-        <v>70.314</v>
+        <v>70.329</v>
       </c>
       <c r="CN58" t="n" s="11">
-        <v>72.542</v>
+        <v>72.558</v>
       </c>
       <c r="CO58" t="n" s="11">
-        <v>72.968</v>
+        <v>72.984</v>
       </c>
       <c r="CP58" t="n" s="11">
-        <v>71.28</v>
+        <v>71.234</v>
       </c>
       <c r="CQ58" t="n" s="11">
-        <v>71.57</v>
+        <v>71.572</v>
       </c>
       <c r="CR58" t="n" s="11">
-        <v>73.426</v>
+        <v>73.428</v>
       </c>
       <c r="CS58" t="n" s="11">
-        <v>73.228</v>
+        <v>73.23</v>
       </c>
       <c r="CT58" t="n" s="11">
-        <v>74.24</v>
+        <v>74.234</v>
       </c>
       <c r="CU58" t="n" s="11">
         <v>74.555</v>
@@ -20299,73 +20300,73 @@
         <v>78.0</v>
       </c>
       <c r="CY58" t="n" s="11">
-        <v>77.633</v>
+        <v>77.639</v>
       </c>
       <c r="CZ58" t="n" s="11">
-        <v>77.139</v>
+        <v>77.137</v>
       </c>
       <c r="DA58" t="n" s="11">
-        <v>77.534</v>
+        <v>77.532</v>
       </c>
       <c r="DB58" t="n" s="11">
-        <v>77.922</v>
+        <v>77.92</v>
       </c>
       <c r="DC58" t="n" s="11">
-        <v>79.298</v>
+        <v>79.285</v>
       </c>
       <c r="DD58" t="n" s="11">
-        <v>78.888</v>
+        <v>78.935</v>
       </c>
       <c r="DE58" t="n" s="11">
-        <v>78.348</v>
+        <v>78.334</v>
       </c>
       <c r="DF58" t="n" s="11">
-        <v>79.002</v>
+        <v>78.981</v>
       </c>
       <c r="DG58" t="n" s="11">
-        <v>78.766</v>
+        <v>78.779</v>
       </c>
       <c r="DH58" t="n" s="11">
-        <v>80.249</v>
+        <v>80.262</v>
       </c>
       <c r="DI58" t="n" s="11">
-        <v>79.831</v>
+        <v>79.783</v>
       </c>
       <c r="DJ58" t="n" s="11">
-        <v>79.732</v>
+        <v>79.753</v>
       </c>
       <c r="DK58" t="n" s="11">
-        <v>79.699</v>
+        <v>79.785</v>
       </c>
       <c r="DL58" t="n" s="11">
-        <v>80.46</v>
+        <v>80.469</v>
       </c>
       <c r="DM58" t="n" s="11">
-        <v>82.019</v>
+        <v>81.975</v>
       </c>
       <c r="DN58" t="n" s="11">
-        <v>81.547</v>
+        <v>81.496</v>
       </c>
       <c r="DO58" t="n" s="11">
-        <v>76.379</v>
+        <v>76.464</v>
       </c>
       <c r="DP58" t="n" s="11">
-        <v>75.52</v>
+        <v>75.536</v>
       </c>
       <c r="DQ58" t="n" s="11">
-        <v>81.29</v>
+        <v>81.308</v>
       </c>
       <c r="DR58" t="n" s="11">
-        <v>84.293</v>
+        <v>84.243</v>
       </c>
       <c r="DS58" t="n" s="11">
-        <v>75.421</v>
+        <v>77.118</v>
       </c>
       <c r="DT58" t="n" s="11">
-        <v>81.845</v>
-      </c>
-      <c r="DU58" t="s" s="11">
-        <v>44</v>
+        <v>83.247</v>
+      </c>
+      <c r="DU58" t="n" s="11">
+        <v>82.95</v>
       </c>
       <c r="DV58" t="s" s="11">
         <v>44</v>
@@ -21499,13 +21500,13 @@
         <v>789.435</v>
       </c>
       <c r="DS61" t="n" s="11">
-        <v>773.624</v>
+        <v>774.683</v>
       </c>
       <c r="DT61" t="n" s="11">
-        <v>786.258</v>
-      </c>
-      <c r="DU61" t="s" s="11">
-        <v>44</v>
+        <v>790.343</v>
+      </c>
+      <c r="DU61" t="n" s="11">
+        <v>803.734</v>
       </c>
       <c r="DV61" t="s" s="11">
         <v>44</v>
@@ -21879,13 +21880,13 @@
         <v>0.7</v>
       </c>
       <c r="DS62" t="n" s="11">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="DT62" t="n" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="DU62" t="s" s="11">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="DU62" t="n" s="11">
+        <v>1.7</v>
       </c>
       <c r="DV62" t="s" s="11">
         <v>44</v>
@@ -22265,7 +22266,7 @@
         <v>47</v>
       </c>
       <c r="DU63" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV63" t="s" s="11">
         <v>44</v>
@@ -22650,7 +22651,7 @@
         <v>47</v>
       </c>
       <c r="DU65" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV65" t="s" s="11">
         <v>44</v>
@@ -23030,7 +23031,7 @@
         <v>47</v>
       </c>
       <c r="DU66" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV66" t="s" s="11">
         <v>44</v>
@@ -24170,7 +24171,7 @@
         <v>47</v>
       </c>
       <c r="DU69" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV69" t="s" s="11">
         <v>44</v>
@@ -24550,7 +24551,7 @@
         <v>47</v>
       </c>
       <c r="DU70" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV70" t="s" s="11">
         <v>44</v>
@@ -24930,7 +24931,7 @@
         <v>47</v>
       </c>
       <c r="DU71" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV71" t="s" s="11">
         <v>44</v>
@@ -24954,373 +24955,373 @@
         <v>43</v>
       </c>
       <c r="C74" t="n" s="11">
-        <v>355.451</v>
+        <v>355.424</v>
       </c>
       <c r="D74" t="n" s="11">
-        <v>359.464</v>
+        <v>359.467</v>
       </c>
       <c r="E74" t="n" s="11">
-        <v>361.936</v>
+        <v>361.933</v>
       </c>
       <c r="F74" t="n" s="11">
-        <v>372.81</v>
+        <v>372.788</v>
       </c>
       <c r="G74" t="n" s="11">
-        <v>380.542</v>
+        <v>380.548</v>
       </c>
       <c r="H74" t="n" s="11">
-        <v>385.0</v>
+        <v>384.988</v>
       </c>
       <c r="I74" t="n" s="11">
-        <v>389.26</v>
+        <v>389.259</v>
       </c>
       <c r="J74" t="n" s="11">
-        <v>390.989</v>
+        <v>390.995</v>
       </c>
       <c r="K74" t="n" s="11">
-        <v>391.695</v>
+        <v>391.686</v>
       </c>
       <c r="L74" t="n" s="11">
-        <v>395.587</v>
+        <v>395.595</v>
       </c>
       <c r="M74" t="n" s="11">
-        <v>397.819</v>
+        <v>397.825</v>
       </c>
       <c r="N74" t="n" s="11">
-        <v>398.313</v>
+        <v>398.334</v>
       </c>
       <c r="O74" t="n" s="11">
-        <v>405.557</v>
+        <v>405.567</v>
       </c>
       <c r="P74" t="n" s="11">
-        <v>408.375</v>
+        <v>408.383</v>
       </c>
       <c r="Q74" t="n" s="11">
-        <v>413.83</v>
+        <v>413.836</v>
       </c>
       <c r="R74" t="n" s="11">
-        <v>420.971</v>
+        <v>420.963</v>
       </c>
       <c r="S74" t="n" s="11">
-        <v>423.252</v>
+        <v>423.265</v>
       </c>
       <c r="T74" t="n" s="11">
-        <v>428.898</v>
+        <v>428.892</v>
       </c>
       <c r="U74" t="n" s="11">
-        <v>432.142</v>
+        <v>432.129</v>
       </c>
       <c r="V74" t="n" s="11">
-        <v>432.786</v>
+        <v>432.782</v>
       </c>
       <c r="W74" t="n" s="11">
-        <v>432.128</v>
+        <v>432.135</v>
       </c>
       <c r="X74" t="n" s="11">
-        <v>435.412</v>
+        <v>435.397</v>
       </c>
       <c r="Y74" t="n" s="11">
-        <v>436.624</v>
+        <v>436.623</v>
       </c>
       <c r="Z74" t="n" s="11">
-        <v>439.618</v>
+        <v>439.612</v>
       </c>
       <c r="AA74" t="n" s="11">
-        <v>441.419</v>
+        <v>441.389</v>
       </c>
       <c r="AB74" t="n" s="11">
-        <v>443.6</v>
+        <v>443.615</v>
       </c>
       <c r="AC74" t="n" s="11">
-        <v>447.633</v>
+        <v>447.63</v>
       </c>
       <c r="AD74" t="n" s="11">
-        <v>451.968</v>
+        <v>451.958</v>
       </c>
       <c r="AE74" t="n" s="11">
-        <v>455.129</v>
+        <v>455.133</v>
       </c>
       <c r="AF74" t="n" s="11">
-        <v>455.747</v>
+        <v>455.732</v>
       </c>
       <c r="AG74" t="n" s="11">
-        <v>457.14</v>
+        <v>457.145</v>
       </c>
       <c r="AH74" t="n" s="11">
-        <v>458.026</v>
+        <v>458.039</v>
       </c>
       <c r="AI74" t="n" s="11">
-        <v>459.398</v>
+        <v>459.391</v>
       </c>
       <c r="AJ74" t="n" s="11">
-        <v>460.961</v>
+        <v>460.977</v>
       </c>
       <c r="AK74" t="n" s="11">
-        <v>464.19</v>
+        <v>464.201</v>
       </c>
       <c r="AL74" t="n" s="11">
-        <v>466.794</v>
+        <v>466.821</v>
       </c>
       <c r="AM74" t="n" s="11">
-        <v>470.211</v>
+        <v>470.231</v>
       </c>
       <c r="AN74" t="n" s="11">
-        <v>475.357</v>
+        <v>475.353</v>
       </c>
       <c r="AO74" t="n" s="11">
-        <v>477.615</v>
+        <v>477.608</v>
       </c>
       <c r="AP74" t="n" s="11">
-        <v>480.328</v>
+        <v>480.311</v>
       </c>
       <c r="AQ74" t="n" s="11">
-        <v>487.036</v>
+        <v>487.039</v>
       </c>
       <c r="AR74" t="n" s="11">
-        <v>489.199</v>
+        <v>489.191</v>
       </c>
       <c r="AS74" t="n" s="11">
-        <v>491.472</v>
+        <v>491.459</v>
       </c>
       <c r="AT74" t="n" s="11">
-        <v>497.348</v>
+        <v>497.337</v>
       </c>
       <c r="AU74" t="n" s="11">
-        <v>495.249</v>
+        <v>495.226</v>
       </c>
       <c r="AV74" t="n" s="11">
-        <v>496.401</v>
+        <v>496.404</v>
       </c>
       <c r="AW74" t="n" s="11">
-        <v>498.833</v>
+        <v>498.832</v>
       </c>
       <c r="AX74" t="n" s="11">
-        <v>499.819</v>
+        <v>499.812</v>
       </c>
       <c r="AY74" t="n" s="11">
-        <v>497.395</v>
+        <v>497.389</v>
       </c>
       <c r="AZ74" t="n" s="11">
-        <v>497.506</v>
+        <v>497.495</v>
       </c>
       <c r="BA74" t="n" s="11">
         <v>501.898</v>
       </c>
       <c r="BB74" t="n" s="11">
-        <v>505.459</v>
+        <v>505.446</v>
       </c>
       <c r="BC74" t="n" s="11">
-        <v>508.159</v>
+        <v>508.177</v>
       </c>
       <c r="BD74" t="n" s="11">
-        <v>512.894</v>
+        <v>512.896</v>
       </c>
       <c r="BE74" t="n" s="11">
-        <v>510.791</v>
+        <v>510.799</v>
       </c>
       <c r="BF74" t="n" s="11">
-        <v>510.462</v>
+        <v>510.494</v>
       </c>
       <c r="BG74" t="n" s="11">
-        <v>514.097</v>
+        <v>514.086</v>
       </c>
       <c r="BH74" t="n" s="11">
-        <v>513.079</v>
+        <v>513.109</v>
       </c>
       <c r="BI74" t="n" s="11">
-        <v>517.548</v>
+        <v>517.561</v>
       </c>
       <c r="BJ74" t="n" s="11">
-        <v>521.098</v>
+        <v>521.1</v>
       </c>
       <c r="BK74" t="n" s="11">
-        <v>527.222</v>
+        <v>527.244</v>
       </c>
       <c r="BL74" t="n" s="11">
-        <v>536.725</v>
+        <v>536.713</v>
       </c>
       <c r="BM74" t="n" s="11">
-        <v>542.983</v>
+        <v>542.974</v>
       </c>
       <c r="BN74" t="n" s="11">
-        <v>551.639</v>
+        <v>551.631</v>
       </c>
       <c r="BO74" t="n" s="11">
-        <v>555.113</v>
+        <v>555.116</v>
       </c>
       <c r="BP74" t="n" s="11">
-        <v>559.678</v>
+        <v>559.663</v>
       </c>
       <c r="BQ74" t="n" s="11">
-        <v>565.997</v>
+        <v>565.986</v>
       </c>
       <c r="BR74" t="n" s="11">
-        <v>571.785</v>
+        <v>571.776</v>
       </c>
       <c r="BS74" t="n" s="11">
-        <v>577.029</v>
+        <v>577.017</v>
       </c>
       <c r="BT74" t="n" s="11">
-        <v>575.044</v>
+        <v>575.073</v>
       </c>
       <c r="BU74" t="n" s="11">
         <v>571.503</v>
       </c>
       <c r="BV74" t="n" s="11">
-        <v>565.247</v>
+        <v>565.232</v>
       </c>
       <c r="BW74" t="n" s="11">
-        <v>542.367</v>
+        <v>542.376</v>
       </c>
       <c r="BX74" t="n" s="11">
-        <v>544.568</v>
+        <v>544.551</v>
       </c>
       <c r="BY74" t="n" s="11">
-        <v>548.85</v>
+        <v>548.854</v>
       </c>
       <c r="BZ74" t="n" s="11">
-        <v>557.079</v>
+        <v>557.085</v>
       </c>
       <c r="CA74" t="n" s="11">
-        <v>564.851</v>
+        <v>564.856</v>
       </c>
       <c r="CB74" t="n" s="11">
-        <v>571.311</v>
+        <v>571.322</v>
       </c>
       <c r="CC74" t="n" s="11">
-        <v>578.683</v>
+        <v>578.69</v>
       </c>
       <c r="CD74" t="n" s="11">
-        <v>585.085</v>
+        <v>585.11</v>
       </c>
       <c r="CE74" t="n" s="11">
-        <v>596.022</v>
+        <v>596.033</v>
       </c>
       <c r="CF74" t="n" s="11">
-        <v>600.989</v>
+        <v>601.002</v>
       </c>
       <c r="CG74" t="n" s="11">
-        <v>606.403</v>
+        <v>606.409</v>
       </c>
       <c r="CH74" t="n" s="11">
         <v>610.218</v>
       </c>
       <c r="CI74" t="n" s="11">
-        <v>612.144</v>
+        <v>612.168</v>
       </c>
       <c r="CJ74" t="n" s="11">
-        <v>615.038</v>
+        <v>615.027</v>
       </c>
       <c r="CK74" t="n" s="11">
-        <v>618.472</v>
+        <v>618.458</v>
       </c>
       <c r="CL74" t="n" s="11">
-        <v>622.014</v>
+        <v>622.003</v>
       </c>
       <c r="CM74" t="n" s="11">
-        <v>624.107</v>
+        <v>624.081</v>
       </c>
       <c r="CN74" t="n" s="11">
-        <v>630.723</v>
+        <v>630.725</v>
       </c>
       <c r="CO74" t="n" s="11">
-        <v>636.243</v>
+        <v>636.24</v>
       </c>
       <c r="CP74" t="n" s="11">
-        <v>641.652</v>
+        <v>641.644</v>
       </c>
       <c r="CQ74" t="n" s="11">
-        <v>652.518</v>
+        <v>652.513</v>
       </c>
       <c r="CR74" t="n" s="11">
-        <v>655.932</v>
+        <v>655.918</v>
       </c>
       <c r="CS74" t="n" s="11">
-        <v>661.905</v>
+        <v>661.902</v>
       </c>
       <c r="CT74" t="n" s="11">
-        <v>669.192</v>
+        <v>669.179</v>
       </c>
       <c r="CU74" t="n" s="11">
-        <v>670.871</v>
+        <v>670.875</v>
       </c>
       <c r="CV74" t="n" s="11">
-        <v>677.234</v>
+        <v>677.225</v>
       </c>
       <c r="CW74" t="n" s="11">
-        <v>684.144</v>
+        <v>684.148</v>
       </c>
       <c r="CX74" t="n" s="11">
-        <v>688.799</v>
+        <v>688.809</v>
       </c>
       <c r="CY74" t="n" s="11">
-        <v>696.671</v>
+        <v>696.644</v>
       </c>
       <c r="CZ74" t="n" s="11">
-        <v>703.217</v>
+        <v>703.292</v>
       </c>
       <c r="DA74" t="n" s="11">
-        <v>706.195</v>
+        <v>706.186</v>
       </c>
       <c r="DB74" t="n" s="11">
-        <v>711.688</v>
+        <v>711.697</v>
       </c>
       <c r="DC74" t="n" s="11">
-        <v>721.876</v>
+        <v>721.884</v>
       </c>
       <c r="DD74" t="n" s="11">
-        <v>731.06</v>
+        <v>731.066</v>
       </c>
       <c r="DE74" t="n" s="11">
-        <v>743.342</v>
+        <v>743.18</v>
       </c>
       <c r="DF74" t="n" s="11">
-        <v>750.476</v>
+        <v>750.686</v>
       </c>
       <c r="DG74" t="n" s="11">
-        <v>751.99</v>
+        <v>752.044</v>
       </c>
       <c r="DH74" t="n" s="11">
-        <v>760.092</v>
+        <v>759.861</v>
       </c>
       <c r="DI74" t="n" s="11">
-        <v>760.654</v>
+        <v>760.384</v>
       </c>
       <c r="DJ74" t="n" s="11">
-        <v>765.814</v>
+        <v>766.301</v>
       </c>
       <c r="DK74" t="n" s="11">
-        <v>774.625</v>
+        <v>774.758</v>
       </c>
       <c r="DL74" t="n" s="11">
-        <v>785.556</v>
+        <v>784.694</v>
       </c>
       <c r="DM74" t="n" s="11">
-        <v>790.174</v>
+        <v>790.344</v>
       </c>
       <c r="DN74" t="n" s="11">
-        <v>784.348</v>
+        <v>785.175</v>
       </c>
       <c r="DO74" t="n" s="11">
-        <v>777.4</v>
+        <v>777.005</v>
       </c>
       <c r="DP74" t="n" s="11">
-        <v>716.885</v>
+        <v>715.94</v>
       </c>
       <c r="DQ74" t="n" s="11">
-        <v>778.164</v>
+        <v>779.638</v>
       </c>
       <c r="DR74" t="n" s="11">
-        <v>773.225</v>
+        <v>774.332</v>
       </c>
       <c r="DS74" t="n" s="11">
-        <v>772.733</v>
+        <v>771.749</v>
       </c>
       <c r="DT74" t="n" s="11">
-        <v>796.585</v>
-      </c>
-      <c r="DU74" t="s" s="11">
-        <v>44</v>
+        <v>798.044</v>
+      </c>
+      <c r="DU74" t="n" s="11">
+        <v>826.193</v>
       </c>
       <c r="DV74" t="s" s="11">
         <v>44</v>
@@ -25334,373 +25335,373 @@
         <v>43</v>
       </c>
       <c r="C75" t="n" s="11">
-        <v>33.019</v>
+        <v>33.116</v>
       </c>
       <c r="D75" t="n" s="11">
-        <v>35.01</v>
+        <v>34.999</v>
       </c>
       <c r="E75" t="n" s="11">
-        <v>37.228</v>
+        <v>37.237</v>
       </c>
       <c r="F75" t="n" s="11">
-        <v>36.965</v>
+        <v>37.039</v>
       </c>
       <c r="G75" t="n" s="11">
-        <v>38.167</v>
+        <v>38.144</v>
       </c>
       <c r="H75" t="n" s="11">
-        <v>38.189</v>
+        <v>38.231</v>
       </c>
       <c r="I75" t="n" s="11">
         <v>38.825</v>
       </c>
       <c r="J75" t="n" s="11">
-        <v>39.894</v>
+        <v>39.871</v>
       </c>
       <c r="K75" t="n" s="11">
-        <v>38.787</v>
+        <v>38.816</v>
       </c>
       <c r="L75" t="n" s="11">
-        <v>40.461</v>
+        <v>40.434</v>
       </c>
       <c r="M75" t="n" s="11">
-        <v>41.745</v>
+        <v>41.725</v>
       </c>
       <c r="N75" t="n" s="11">
-        <v>42.441</v>
+        <v>42.368</v>
       </c>
       <c r="O75" t="n" s="11">
-        <v>44.997</v>
+        <v>44.973</v>
       </c>
       <c r="P75" t="n" s="11">
-        <v>44.432</v>
+        <v>44.403</v>
       </c>
       <c r="Q75" t="n" s="11">
-        <v>44.39</v>
+        <v>44.366</v>
       </c>
       <c r="R75" t="n" s="11">
-        <v>44.504</v>
+        <v>44.527</v>
       </c>
       <c r="S75" t="n" s="11">
-        <v>44.407</v>
+        <v>44.364</v>
       </c>
       <c r="T75" t="n" s="11">
-        <v>44.945</v>
+        <v>44.966</v>
       </c>
       <c r="U75" t="n" s="11">
-        <v>44.238</v>
+        <v>44.285</v>
       </c>
       <c r="V75" t="n" s="11">
-        <v>44.218</v>
+        <v>44.237</v>
       </c>
       <c r="W75" t="n" s="11">
-        <v>45.176</v>
+        <v>45.156</v>
       </c>
       <c r="X75" t="n" s="11">
-        <v>44.283</v>
+        <v>44.33</v>
       </c>
       <c r="Y75" t="n" s="11">
-        <v>45.002</v>
+        <v>45.008</v>
       </c>
       <c r="Z75" t="n" s="11">
-        <v>45.077</v>
+        <v>45.105</v>
       </c>
       <c r="AA75" t="n" s="11">
-        <v>44.941</v>
+        <v>45.048</v>
       </c>
       <c r="AB75" t="n" s="11">
-        <v>45.779</v>
+        <v>45.729</v>
       </c>
       <c r="AC75" t="n" s="11">
-        <v>45.535</v>
+        <v>45.545</v>
       </c>
       <c r="AD75" t="n" s="11">
-        <v>45.562</v>
+        <v>45.605</v>
       </c>
       <c r="AE75" t="n" s="11">
-        <v>46.14</v>
+        <v>46.125</v>
       </c>
       <c r="AF75" t="n" s="11">
-        <v>47.107</v>
+        <v>47.158</v>
       </c>
       <c r="AG75" t="n" s="11">
-        <v>47.464</v>
+        <v>47.449</v>
       </c>
       <c r="AH75" t="n" s="11">
-        <v>47.793</v>
+        <v>47.752</v>
       </c>
       <c r="AI75" t="n" s="11">
-        <v>49.407</v>
+        <v>49.424</v>
       </c>
       <c r="AJ75" t="n" s="11">
-        <v>49.679</v>
+        <v>49.63</v>
       </c>
       <c r="AK75" t="n" s="11">
-        <v>51.266</v>
+        <v>51.226</v>
       </c>
       <c r="AL75" t="n" s="11">
-        <v>52.846</v>
+        <v>52.75</v>
       </c>
       <c r="AM75" t="n" s="11">
-        <v>51.904</v>
+        <v>51.831</v>
       </c>
       <c r="AN75" t="n" s="11">
-        <v>52.426</v>
+        <v>52.436</v>
       </c>
       <c r="AO75" t="n" s="11">
-        <v>51.941</v>
+        <v>51.965</v>
       </c>
       <c r="AP75" t="n" s="11">
-        <v>50.782</v>
+        <v>50.84</v>
       </c>
       <c r="AQ75" t="n" s="11">
-        <v>52.876</v>
+        <v>52.867</v>
       </c>
       <c r="AR75" t="n" s="11">
-        <v>52.979</v>
+        <v>53.01</v>
       </c>
       <c r="AS75" t="n" s="11">
-        <v>52.446</v>
+        <v>52.492</v>
       </c>
       <c r="AT75" t="n" s="11">
-        <v>51.244</v>
+        <v>51.282</v>
       </c>
       <c r="AU75" t="n" s="11">
-        <v>52.271</v>
+        <v>52.351</v>
       </c>
       <c r="AV75" t="n" s="11">
-        <v>52.414</v>
+        <v>52.405</v>
       </c>
       <c r="AW75" t="n" s="11">
-        <v>53.826</v>
+        <v>53.831</v>
       </c>
       <c r="AX75" t="n" s="11">
-        <v>52.455</v>
+        <v>52.479</v>
       </c>
       <c r="AY75" t="n" s="11">
-        <v>53.583</v>
+        <v>53.603</v>
       </c>
       <c r="AZ75" t="n" s="11">
-        <v>54.311</v>
+        <v>54.355</v>
       </c>
       <c r="BA75" t="n" s="11">
-        <v>53.276</v>
+        <v>53.278</v>
       </c>
       <c r="BB75" t="n" s="11">
-        <v>53.638</v>
+        <v>53.682</v>
       </c>
       <c r="BC75" t="n" s="11">
-        <v>54.233</v>
+        <v>54.174</v>
       </c>
       <c r="BD75" t="n" s="11">
-        <v>52.674</v>
+        <v>52.67</v>
       </c>
       <c r="BE75" t="n" s="11">
-        <v>53.245</v>
+        <v>53.218</v>
       </c>
       <c r="BF75" t="n" s="11">
-        <v>52.909</v>
+        <v>52.796</v>
       </c>
       <c r="BG75" t="n" s="11">
-        <v>52.582</v>
+        <v>52.629</v>
       </c>
       <c r="BH75" t="n" s="11">
-        <v>54.453</v>
+        <v>54.345</v>
       </c>
       <c r="BI75" t="n" s="11">
-        <v>55.614</v>
+        <v>55.569</v>
       </c>
       <c r="BJ75" t="n" s="11">
-        <v>56.287</v>
+        <v>56.277</v>
       </c>
       <c r="BK75" t="n" s="11">
-        <v>55.684</v>
+        <v>55.605</v>
       </c>
       <c r="BL75" t="n" s="11">
-        <v>56.633</v>
+        <v>56.68</v>
       </c>
       <c r="BM75" t="n" s="11">
-        <v>56.903</v>
+        <v>56.93</v>
       </c>
       <c r="BN75" t="n" s="11">
-        <v>58.953</v>
+        <v>58.981</v>
       </c>
       <c r="BO75" t="n" s="11">
-        <v>62.427</v>
+        <v>62.418</v>
       </c>
       <c r="BP75" t="n" s="11">
-        <v>62.949</v>
+        <v>63.007</v>
       </c>
       <c r="BQ75" t="n" s="11">
-        <v>62.618</v>
+        <v>62.657</v>
       </c>
       <c r="BR75" t="n" s="11">
-        <v>61.88</v>
+        <v>61.907</v>
       </c>
       <c r="BS75" t="n" s="11">
-        <v>65.099</v>
+        <v>65.157</v>
       </c>
       <c r="BT75" t="n" s="11">
-        <v>65.469</v>
+        <v>65.373</v>
       </c>
       <c r="BU75" t="n" s="11">
-        <v>63.588</v>
+        <v>63.577</v>
       </c>
       <c r="BV75" t="n" s="11">
-        <v>61.009</v>
+        <v>61.052</v>
       </c>
       <c r="BW75" t="n" s="11">
-        <v>66.675</v>
+        <v>66.661</v>
       </c>
       <c r="BX75" t="n" s="11">
-        <v>63.593</v>
+        <v>63.652</v>
       </c>
       <c r="BY75" t="n" s="11">
-        <v>62.417</v>
+        <v>62.4</v>
       </c>
       <c r="BZ75" t="n" s="11">
-        <v>61.102</v>
+        <v>61.069</v>
       </c>
       <c r="CA75" t="n" s="11">
-        <v>63.393</v>
+        <v>63.387</v>
       </c>
       <c r="CB75" t="n" s="11">
-        <v>64.997</v>
+        <v>64.96</v>
       </c>
       <c r="CC75" t="n" s="11">
-        <v>65.809</v>
+        <v>65.779</v>
       </c>
       <c r="CD75" t="n" s="11">
-        <v>67.008</v>
+        <v>66.918</v>
       </c>
       <c r="CE75" t="n" s="11">
-        <v>68.6</v>
+        <v>68.562</v>
       </c>
       <c r="CF75" t="n" s="11">
-        <v>68.906</v>
+        <v>68.863</v>
       </c>
       <c r="CG75" t="n" s="11">
-        <v>69.004</v>
+        <v>68.975</v>
       </c>
       <c r="CH75" t="n" s="11">
         <v>69.69</v>
       </c>
       <c r="CI75" t="n" s="11">
-        <v>70.009</v>
+        <v>69.929</v>
       </c>
       <c r="CJ75" t="n" s="11">
-        <v>69.092</v>
+        <v>69.124</v>
       </c>
       <c r="CK75" t="n" s="11">
-        <v>69.645</v>
+        <v>69.692</v>
       </c>
       <c r="CL75" t="n" s="11">
-        <v>70.35</v>
+        <v>70.39</v>
       </c>
       <c r="CM75" t="n" s="11">
-        <v>69.57</v>
+        <v>69.656</v>
       </c>
       <c r="CN75" t="n" s="11">
-        <v>71.099</v>
+        <v>71.088</v>
       </c>
       <c r="CO75" t="n" s="11">
-        <v>71.608</v>
+        <v>71.616</v>
       </c>
       <c r="CP75" t="n" s="11">
-        <v>70.926</v>
+        <v>70.955</v>
       </c>
       <c r="CQ75" t="n" s="11">
-        <v>72.129</v>
+        <v>72.142</v>
       </c>
       <c r="CR75" t="n" s="11">
-        <v>72.695</v>
+        <v>72.737</v>
       </c>
       <c r="CS75" t="n" s="11">
-        <v>72.976</v>
+        <v>72.99</v>
       </c>
       <c r="CT75" t="n" s="11">
-        <v>73.854</v>
+        <v>73.899</v>
       </c>
       <c r="CU75" t="n" s="11">
-        <v>74.654</v>
+        <v>74.647</v>
       </c>
       <c r="CV75" t="n" s="11">
-        <v>75.238</v>
+        <v>75.284</v>
       </c>
       <c r="CW75" t="n" s="11">
-        <v>76.514</v>
+        <v>76.507</v>
       </c>
       <c r="CX75" t="n" s="11">
-        <v>77.919</v>
+        <v>77.864</v>
       </c>
       <c r="CY75" t="n" s="11">
-        <v>77.293</v>
+        <v>77.355</v>
       </c>
       <c r="CZ75" t="n" s="11">
-        <v>78.029</v>
+        <v>77.877</v>
       </c>
       <c r="DA75" t="n" s="11">
-        <v>78.696</v>
+        <v>78.685</v>
       </c>
       <c r="DB75" t="n" s="11">
-        <v>79.023</v>
+        <v>78.992</v>
       </c>
       <c r="DC75" t="n" s="11">
-        <v>80.829</v>
+        <v>80.758</v>
       </c>
       <c r="DD75" t="n" s="11">
-        <v>80.04</v>
+        <v>80.082</v>
       </c>
       <c r="DE75" t="n" s="11">
-        <v>80.417</v>
+        <v>80.597</v>
       </c>
       <c r="DF75" t="n" s="11">
-        <v>81.764</v>
+        <v>81.592</v>
       </c>
       <c r="DG75" t="n" s="11">
-        <v>81.802</v>
+        <v>81.782</v>
       </c>
       <c r="DH75" t="n" s="11">
-        <v>82.486</v>
+        <v>82.892</v>
       </c>
       <c r="DI75" t="n" s="11">
-        <v>82.913</v>
+        <v>83.213</v>
       </c>
       <c r="DJ75" t="n" s="11">
-        <v>85.007</v>
+        <v>84.175</v>
       </c>
       <c r="DK75" t="n" s="11">
-        <v>87.099</v>
+        <v>86.319</v>
       </c>
       <c r="DL75" t="n" s="11">
-        <v>80.288</v>
+        <v>83.402</v>
       </c>
       <c r="DM75" t="n" s="11">
-        <v>85.365</v>
+        <v>84.16</v>
       </c>
       <c r="DN75" t="n" s="11">
-        <v>88.845</v>
+        <v>86.734</v>
       </c>
       <c r="DO75" t="n" s="11">
-        <v>89.812</v>
+        <v>89.256</v>
       </c>
       <c r="DP75" t="n" s="11">
-        <v>70.954</v>
+        <v>78.04</v>
       </c>
       <c r="DQ75" t="n" s="11">
-        <v>74.554</v>
+        <v>69.943</v>
       </c>
       <c r="DR75" t="n" s="11">
-        <v>82.072</v>
+        <v>79.031</v>
       </c>
       <c r="DS75" t="n" s="11">
-        <v>84.952</v>
+        <v>85.526</v>
       </c>
       <c r="DT75" t="n" s="11">
-        <v>72.73</v>
-      </c>
-      <c r="DU75" t="s" s="11">
-        <v>44</v>
+        <v>83.088</v>
+      </c>
+      <c r="DU75" t="n" s="11">
+        <v>82.406</v>
       </c>
       <c r="DV75" t="s" s="11">
         <v>44</v>
@@ -26474,373 +26475,373 @@
         <v>43</v>
       </c>
       <c r="C78" t="n" s="11">
-        <v>388.47</v>
+        <v>388.54</v>
       </c>
       <c r="D78" t="n" s="11">
-        <v>394.474</v>
+        <v>394.466</v>
       </c>
       <c r="E78" t="n" s="11">
-        <v>399.164</v>
+        <v>399.17</v>
       </c>
       <c r="F78" t="n" s="11">
-        <v>409.775</v>
+        <v>409.827</v>
       </c>
       <c r="G78" t="n" s="11">
-        <v>418.709</v>
+        <v>418.692</v>
       </c>
       <c r="H78" t="n" s="11">
-        <v>423.189</v>
+        <v>423.219</v>
       </c>
       <c r="I78" t="n" s="11">
-        <v>428.085</v>
+        <v>428.084</v>
       </c>
       <c r="J78" t="n" s="11">
-        <v>430.883</v>
+        <v>430.866</v>
       </c>
       <c r="K78" t="n" s="11">
-        <v>430.482</v>
+        <v>430.502</v>
       </c>
       <c r="L78" t="n" s="11">
-        <v>436.048</v>
+        <v>436.029</v>
       </c>
       <c r="M78" t="n" s="11">
-        <v>439.564</v>
+        <v>439.55</v>
       </c>
       <c r="N78" t="n" s="11">
-        <v>440.754</v>
+        <v>440.702</v>
       </c>
       <c r="O78" t="n" s="11">
-        <v>450.554</v>
+        <v>450.54</v>
       </c>
       <c r="P78" t="n" s="11">
-        <v>452.807</v>
+        <v>452.786</v>
       </c>
       <c r="Q78" t="n" s="11">
-        <v>458.22</v>
+        <v>458.202</v>
       </c>
       <c r="R78" t="n" s="11">
-        <v>465.475</v>
+        <v>465.49</v>
       </c>
       <c r="S78" t="n" s="11">
-        <v>467.659</v>
+        <v>467.629</v>
       </c>
       <c r="T78" t="n" s="11">
-        <v>473.843</v>
+        <v>473.858</v>
       </c>
       <c r="U78" t="n" s="11">
-        <v>476.38</v>
+        <v>476.414</v>
       </c>
       <c r="V78" t="n" s="11">
-        <v>477.004</v>
+        <v>477.019</v>
       </c>
       <c r="W78" t="n" s="11">
-        <v>477.304</v>
+        <v>477.291</v>
       </c>
       <c r="X78" t="n" s="11">
-        <v>479.695</v>
+        <v>479.727</v>
       </c>
       <c r="Y78" t="n" s="11">
-        <v>481.626</v>
+        <v>481.631</v>
       </c>
       <c r="Z78" t="n" s="11">
-        <v>484.695</v>
+        <v>484.717</v>
       </c>
       <c r="AA78" t="n" s="11">
-        <v>486.36</v>
+        <v>486.437</v>
       </c>
       <c r="AB78" t="n" s="11">
-        <v>489.379</v>
+        <v>489.344</v>
       </c>
       <c r="AC78" t="n" s="11">
-        <v>493.168</v>
+        <v>493.175</v>
       </c>
       <c r="AD78" t="n" s="11">
-        <v>497.53</v>
+        <v>497.563</v>
       </c>
       <c r="AE78" t="n" s="11">
-        <v>501.269</v>
+        <v>501.258</v>
       </c>
       <c r="AF78" t="n" s="11">
-        <v>502.854</v>
+        <v>502.89</v>
       </c>
       <c r="AG78" t="n" s="11">
-        <v>504.604</v>
+        <v>504.594</v>
       </c>
       <c r="AH78" t="n" s="11">
-        <v>505.819</v>
+        <v>505.791</v>
       </c>
       <c r="AI78" t="n" s="11">
-        <v>508.805</v>
+        <v>508.815</v>
       </c>
       <c r="AJ78" t="n" s="11">
-        <v>510.64</v>
+        <v>510.607</v>
       </c>
       <c r="AK78" t="n" s="11">
-        <v>515.456</v>
+        <v>515.427</v>
       </c>
       <c r="AL78" t="n" s="11">
-        <v>519.64</v>
+        <v>519.571</v>
       </c>
       <c r="AM78" t="n" s="11">
-        <v>522.115</v>
+        <v>522.062</v>
       </c>
       <c r="AN78" t="n" s="11">
-        <v>527.783</v>
+        <v>527.789</v>
       </c>
       <c r="AO78" t="n" s="11">
-        <v>529.556</v>
+        <v>529.573</v>
       </c>
       <c r="AP78" t="n" s="11">
-        <v>531.11</v>
+        <v>531.151</v>
       </c>
       <c r="AQ78" t="n" s="11">
-        <v>539.912</v>
+        <v>539.906</v>
       </c>
       <c r="AR78" t="n" s="11">
-        <v>542.178</v>
+        <v>542.201</v>
       </c>
       <c r="AS78" t="n" s="11">
-        <v>543.918</v>
+        <v>543.951</v>
       </c>
       <c r="AT78" t="n" s="11">
-        <v>548.592</v>
+        <v>548.619</v>
       </c>
       <c r="AU78" t="n" s="11">
-        <v>547.52</v>
+        <v>547.577</v>
       </c>
       <c r="AV78" t="n" s="11">
-        <v>548.815</v>
+        <v>548.809</v>
       </c>
       <c r="AW78" t="n" s="11">
-        <v>552.659</v>
+        <v>552.663</v>
       </c>
       <c r="AX78" t="n" s="11">
-        <v>552.274</v>
+        <v>552.291</v>
       </c>
       <c r="AY78" t="n" s="11">
-        <v>550.978</v>
+        <v>550.992</v>
       </c>
       <c r="AZ78" t="n" s="11">
-        <v>551.817</v>
+        <v>551.85</v>
       </c>
       <c r="BA78" t="n" s="11">
-        <v>555.174</v>
+        <v>555.176</v>
       </c>
       <c r="BB78" t="n" s="11">
-        <v>559.097</v>
+        <v>559.128</v>
       </c>
       <c r="BC78" t="n" s="11">
-        <v>562.392</v>
+        <v>562.351</v>
       </c>
       <c r="BD78" t="n" s="11">
-        <v>565.568</v>
+        <v>565.566</v>
       </c>
       <c r="BE78" t="n" s="11">
-        <v>564.036</v>
+        <v>564.017</v>
       </c>
       <c r="BF78" t="n" s="11">
-        <v>563.371</v>
+        <v>563.29</v>
       </c>
       <c r="BG78" t="n" s="11">
-        <v>566.679</v>
+        <v>566.715</v>
       </c>
       <c r="BH78" t="n" s="11">
-        <v>567.532</v>
+        <v>567.454</v>
       </c>
       <c r="BI78" t="n" s="11">
-        <v>573.162</v>
+        <v>573.13</v>
       </c>
       <c r="BJ78" t="n" s="11">
-        <v>577.385</v>
+        <v>577.377</v>
       </c>
       <c r="BK78" t="n" s="11">
-        <v>582.906</v>
+        <v>582.849</v>
       </c>
       <c r="BL78" t="n" s="11">
-        <v>593.358</v>
+        <v>593.393</v>
       </c>
       <c r="BM78" t="n" s="11">
-        <v>599.886</v>
+        <v>599.904</v>
       </c>
       <c r="BN78" t="n" s="11">
-        <v>610.592</v>
+        <v>610.612</v>
       </c>
       <c r="BO78" t="n" s="11">
-        <v>617.54</v>
+        <v>617.534</v>
       </c>
       <c r="BP78" t="n" s="11">
-        <v>622.627</v>
+        <v>622.67</v>
       </c>
       <c r="BQ78" t="n" s="11">
-        <v>628.615</v>
+        <v>628.643</v>
       </c>
       <c r="BR78" t="n" s="11">
-        <v>633.665</v>
+        <v>633.683</v>
       </c>
       <c r="BS78" t="n" s="11">
-        <v>642.128</v>
+        <v>642.174</v>
       </c>
       <c r="BT78" t="n" s="11">
-        <v>640.513</v>
+        <v>640.446</v>
       </c>
       <c r="BU78" t="n" s="11">
-        <v>635.091</v>
+        <v>635.08</v>
       </c>
       <c r="BV78" t="n" s="11">
-        <v>626.256</v>
+        <v>626.284</v>
       </c>
       <c r="BW78" t="n" s="11">
-        <v>609.042</v>
+        <v>609.037</v>
       </c>
       <c r="BX78" t="n" s="11">
-        <v>608.161</v>
+        <v>608.203</v>
       </c>
       <c r="BY78" t="n" s="11">
-        <v>611.267</v>
+        <v>611.254</v>
       </c>
       <c r="BZ78" t="n" s="11">
-        <v>618.181</v>
+        <v>618.154</v>
       </c>
       <c r="CA78" t="n" s="11">
-        <v>628.244</v>
+        <v>628.243</v>
       </c>
       <c r="CB78" t="n" s="11">
-        <v>636.308</v>
+        <v>636.282</v>
       </c>
       <c r="CC78" t="n" s="11">
-        <v>644.492</v>
+        <v>644.469</v>
       </c>
       <c r="CD78" t="n" s="11">
-        <v>652.093</v>
+        <v>652.028</v>
       </c>
       <c r="CE78" t="n" s="11">
-        <v>664.622</v>
+        <v>664.595</v>
       </c>
       <c r="CF78" t="n" s="11">
-        <v>669.895</v>
+        <v>669.865</v>
       </c>
       <c r="CG78" t="n" s="11">
-        <v>675.407</v>
+        <v>675.384</v>
       </c>
       <c r="CH78" t="n" s="11">
         <v>679.908</v>
       </c>
       <c r="CI78" t="n" s="11">
-        <v>682.153</v>
+        <v>682.097</v>
       </c>
       <c r="CJ78" t="n" s="11">
-        <v>684.13</v>
+        <v>684.151</v>
       </c>
       <c r="CK78" t="n" s="11">
-        <v>688.117</v>
+        <v>688.15</v>
       </c>
       <c r="CL78" t="n" s="11">
-        <v>692.364</v>
+        <v>692.393</v>
       </c>
       <c r="CM78" t="n" s="11">
-        <v>693.677</v>
+        <v>693.737</v>
       </c>
       <c r="CN78" t="n" s="11">
-        <v>701.822</v>
+        <v>701.813</v>
       </c>
       <c r="CO78" t="n" s="11">
-        <v>707.851</v>
+        <v>707.856</v>
       </c>
       <c r="CP78" t="n" s="11">
-        <v>712.578</v>
+        <v>712.599</v>
       </c>
       <c r="CQ78" t="n" s="11">
-        <v>724.647</v>
+        <v>724.655</v>
       </c>
       <c r="CR78" t="n" s="11">
-        <v>728.627</v>
+        <v>728.655</v>
       </c>
       <c r="CS78" t="n" s="11">
-        <v>734.881</v>
+        <v>734.892</v>
       </c>
       <c r="CT78" t="n" s="11">
-        <v>743.046</v>
+        <v>743.078</v>
       </c>
       <c r="CU78" t="n" s="11">
-        <v>745.525</v>
+        <v>745.522</v>
       </c>
       <c r="CV78" t="n" s="11">
-        <v>752.472</v>
+        <v>752.509</v>
       </c>
       <c r="CW78" t="n" s="11">
-        <v>760.658</v>
+        <v>760.655</v>
       </c>
       <c r="CX78" t="n" s="11">
-        <v>766.718</v>
+        <v>766.673</v>
       </c>
       <c r="CY78" t="n" s="11">
-        <v>773.964</v>
+        <v>773.999</v>
       </c>
       <c r="CZ78" t="n" s="11">
-        <v>781.246</v>
+        <v>781.169</v>
       </c>
       <c r="DA78" t="n" s="11">
-        <v>784.891</v>
+        <v>784.871</v>
       </c>
       <c r="DB78" t="n" s="11">
-        <v>790.711</v>
+        <v>790.689</v>
       </c>
       <c r="DC78" t="n" s="11">
-        <v>802.705</v>
+        <v>802.642</v>
       </c>
       <c r="DD78" t="n" s="11">
-        <v>811.1</v>
+        <v>811.148</v>
       </c>
       <c r="DE78" t="n" s="11">
-        <v>823.759</v>
+        <v>823.777</v>
       </c>
       <c r="DF78" t="n" s="11">
-        <v>832.24</v>
+        <v>832.278</v>
       </c>
       <c r="DG78" t="n" s="11">
-        <v>833.792</v>
+        <v>833.826</v>
       </c>
       <c r="DH78" t="n" s="11">
-        <v>842.578</v>
+        <v>842.753</v>
       </c>
       <c r="DI78" t="n" s="11">
-        <v>843.567</v>
+        <v>843.597</v>
       </c>
       <c r="DJ78" t="n" s="11">
-        <v>850.821</v>
+        <v>850.476</v>
       </c>
       <c r="DK78" t="n" s="11">
-        <v>861.724</v>
+        <v>861.077</v>
       </c>
       <c r="DL78" t="n" s="11">
-        <v>865.844</v>
+        <v>868.096</v>
       </c>
       <c r="DM78" t="n" s="11">
-        <v>875.539</v>
+        <v>874.504</v>
       </c>
       <c r="DN78" t="n" s="11">
-        <v>873.193</v>
+        <v>871.909</v>
       </c>
       <c r="DO78" t="n" s="11">
-        <v>867.212</v>
+        <v>866.261</v>
       </c>
       <c r="DP78" t="n" s="11">
-        <v>787.839</v>
+        <v>793.98</v>
       </c>
       <c r="DQ78" t="n" s="11">
-        <v>852.718</v>
+        <v>849.581</v>
       </c>
       <c r="DR78" t="n" s="11">
-        <v>855.297</v>
+        <v>853.363</v>
       </c>
       <c r="DS78" t="n" s="11">
-        <v>857.685</v>
+        <v>857.275</v>
       </c>
       <c r="DT78" t="n" s="11">
-        <v>869.315</v>
-      </c>
-      <c r="DU78" t="s" s="11">
-        <v>44</v>
+        <v>881.132</v>
+      </c>
+      <c r="DU78" t="n" s="11">
+        <v>908.599</v>
       </c>
       <c r="DV78" t="s" s="11">
         <v>44</v>
@@ -26872,10 +26873,10 @@
         <v>1.1</v>
       </c>
       <c r="I79" t="n" s="11">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J79" t="n" s="11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K79" t="n" s="11">
         <v>-0.1</v>
@@ -26926,7 +26927,7 @@
         <v>0.6</v>
       </c>
       <c r="AA79" t="n" s="11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB79" t="n" s="11">
         <v>0.6</v>
@@ -26938,7 +26939,7 @@
         <v>0.9</v>
       </c>
       <c r="AE79" t="n" s="11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AF79" t="n" s="11">
         <v>0.3</v>
@@ -26974,7 +26975,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ79" t="n" s="11">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AR79" t="n" s="11">
         <v>0.4</v>
@@ -27025,7 +27026,7 @@
         <v>0.6</v>
       </c>
       <c r="BH79" t="n" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BI79" t="n" s="11">
         <v>1.0</v>
@@ -27034,7 +27035,7 @@
         <v>0.7</v>
       </c>
       <c r="BK79" t="n" s="11">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="BL79" t="n" s="11">
         <v>1.8</v>
@@ -27070,7 +27071,7 @@
         <v>-1.4</v>
       </c>
       <c r="BW79" t="n" s="11">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="BX79" t="n" s="11">
         <v>-0.1</v>
@@ -27133,7 +27134,7 @@
         <v>1.7</v>
       </c>
       <c r="CR79" t="n" s="11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CS79" t="n" s="11">
         <v>0.9</v>
@@ -27154,7 +27155,7 @@
         <v>0.8</v>
       </c>
       <c r="CY79" t="n" s="11">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="CZ79" t="n" s="11">
         <v>0.9</v>
@@ -27169,7 +27170,7 @@
         <v>1.5</v>
       </c>
       <c r="DD79" t="n" s="11">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="DE79" t="n" s="11">
         <v>1.6</v>
@@ -27187,40 +27188,40 @@
         <v>0.1</v>
       </c>
       <c r="DJ79" t="n" s="11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="DK79" t="n" s="11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="DL79" t="n" s="11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="DM79" t="n" s="11">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="DN79" t="n" s="11">
         <v>-0.3</v>
       </c>
       <c r="DO79" t="n" s="11">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DP79" t="n" s="11">
-        <v>-9.2</v>
+        <v>-8.3</v>
       </c>
       <c r="DQ79" t="n" s="11">
-        <v>8.2</v>
+        <v>7.0</v>
       </c>
       <c r="DR79" t="n" s="11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="DS79" t="n" s="11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="DT79" t="n" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="DU79" t="s" s="11">
-        <v>44</v>
+        <v>2.8</v>
+      </c>
+      <c r="DU79" t="n" s="11">
+        <v>3.1</v>
       </c>
       <c r="DV79" t="s" s="11">
         <v>44</v>
@@ -27234,7 +27235,7 @@
         <v>43</v>
       </c>
       <c r="C80" t="n" s="11">
-        <v>4867.0</v>
+        <v>4868.0</v>
       </c>
       <c r="D80" t="n" s="11">
         <v>4936.0</v>
@@ -27249,16 +27250,16 @@
         <v>5216.0</v>
       </c>
       <c r="H80" t="n" s="11">
-        <v>5263.0</v>
+        <v>5264.0</v>
       </c>
       <c r="I80" t="n" s="11">
-        <v>5313.0</v>
+        <v>5312.0</v>
       </c>
       <c r="J80" t="n" s="11">
-        <v>5337.0</v>
+        <v>5336.0</v>
       </c>
       <c r="K80" t="n" s="11">
-        <v>5325.0</v>
+        <v>5326.0</v>
       </c>
       <c r="L80" t="n" s="11">
         <v>5388.0</v>
@@ -27288,7 +27289,7 @@
         <v>5830.0</v>
       </c>
       <c r="U80" t="n" s="11">
-        <v>5857.0</v>
+        <v>5858.0</v>
       </c>
       <c r="V80" t="n" s="11">
         <v>5861.0</v>
@@ -27297,7 +27298,7 @@
         <v>5862.0</v>
       </c>
       <c r="X80" t="n" s="11">
-        <v>5889.0</v>
+        <v>5890.0</v>
       </c>
       <c r="Y80" t="n" s="11">
         <v>5911.0</v>
@@ -27306,10 +27307,10 @@
         <v>5946.0</v>
       </c>
       <c r="AA80" t="n" s="11">
-        <v>5966.0</v>
+        <v>5967.0</v>
       </c>
       <c r="AB80" t="n" s="11">
-        <v>6003.0</v>
+        <v>6002.0</v>
       </c>
       <c r="AC80" t="n" s="11">
         <v>6050.0</v>
@@ -27321,7 +27322,7 @@
         <v>6151.0</v>
       </c>
       <c r="AF80" t="n" s="11">
-        <v>6173.0</v>
+        <v>6174.0</v>
       </c>
       <c r="AG80" t="n" s="11">
         <v>6197.0</v>
@@ -27336,13 +27337,13 @@
         <v>6272.0</v>
       </c>
       <c r="AK80" t="n" s="11">
-        <v>6330.0</v>
+        <v>6329.0</v>
       </c>
       <c r="AL80" t="n" s="11">
-        <v>6380.0</v>
+        <v>6379.0</v>
       </c>
       <c r="AM80" t="n" s="11">
-        <v>6410.0</v>
+        <v>6409.0</v>
       </c>
       <c r="AN80" t="n" s="11">
         <v>6480.0</v>
@@ -27360,13 +27361,13 @@
         <v>6652.0</v>
       </c>
       <c r="AS80" t="n" s="11">
-        <v>6671.0</v>
+        <v>6672.0</v>
       </c>
       <c r="AT80" t="n" s="11">
         <v>6727.0</v>
       </c>
       <c r="AU80" t="n" s="11">
-        <v>6712.0</v>
+        <v>6713.0</v>
       </c>
       <c r="AV80" t="n" s="11">
         <v>6727.0</v>
@@ -27375,7 +27376,7 @@
         <v>6774.0</v>
       </c>
       <c r="AX80" t="n" s="11">
-        <v>6769.0</v>
+        <v>6770.0</v>
       </c>
       <c r="AY80" t="n" s="11">
         <v>6754.0</v>
@@ -27390,37 +27391,37 @@
         <v>6859.0</v>
       </c>
       <c r="BC80" t="n" s="11">
-        <v>6901.0</v>
+        <v>6900.0</v>
       </c>
       <c r="BD80" t="n" s="11">
         <v>6942.0</v>
       </c>
       <c r="BE80" t="n" s="11">
-        <v>6926.0</v>
+        <v>6925.0</v>
       </c>
       <c r="BF80" t="n" s="11">
-        <v>6920.0</v>
+        <v>6919.0</v>
       </c>
       <c r="BG80" t="n" s="11">
-        <v>6963.0</v>
+        <v>6964.0</v>
       </c>
       <c r="BH80" t="n" s="11">
-        <v>6976.0</v>
+        <v>6975.0</v>
       </c>
       <c r="BI80" t="n" s="11">
-        <v>7048.0</v>
+        <v>7047.0</v>
       </c>
       <c r="BJ80" t="n" s="11">
         <v>7103.0</v>
       </c>
       <c r="BK80" t="n" s="11">
-        <v>7175.0</v>
+        <v>7174.0</v>
       </c>
       <c r="BL80" t="n" s="11">
-        <v>7307.0</v>
+        <v>7308.0</v>
       </c>
       <c r="BM80" t="n" s="11">
-        <v>7392.0</v>
+        <v>7393.0</v>
       </c>
       <c r="BN80" t="n" s="11">
         <v>7529.0</v>
@@ -27429,7 +27430,7 @@
         <v>7619.0</v>
       </c>
       <c r="BP80" t="n" s="11">
-        <v>7685.0</v>
+        <v>7686.0</v>
       </c>
       <c r="BQ80" t="n" s="11">
         <v>7764.0</v>
@@ -27438,10 +27439,10 @@
         <v>7830.0</v>
       </c>
       <c r="BS80" t="n" s="11">
-        <v>7941.0</v>
+        <v>7942.0</v>
       </c>
       <c r="BT80" t="n" s="11">
-        <v>7927.0</v>
+        <v>7926.0</v>
       </c>
       <c r="BU80" t="n" s="11">
         <v>7866.0</v>
@@ -27453,10 +27454,10 @@
         <v>7558.0</v>
       </c>
       <c r="BX80" t="n" s="11">
-        <v>7554.0</v>
+        <v>7555.0</v>
       </c>
       <c r="BY80" t="n" s="11">
-        <v>7599.0</v>
+        <v>7598.0</v>
       </c>
       <c r="BZ80" t="n" s="11">
         <v>7689.0</v>
@@ -27468,16 +27469,16 @@
         <v>7924.0</v>
       </c>
       <c r="CC80" t="n" s="11">
-        <v>8030.0</v>
+        <v>8029.0</v>
       </c>
       <c r="CD80" t="n" s="11">
-        <v>8126.0</v>
+        <v>8125.0</v>
       </c>
       <c r="CE80" t="n" s="11">
         <v>8281.0</v>
       </c>
       <c r="CF80" t="n" s="11">
-        <v>8347.0</v>
+        <v>8346.0</v>
       </c>
       <c r="CG80" t="n" s="11">
         <v>8413.0</v>
@@ -27492,13 +27493,13 @@
         <v>8509.0</v>
       </c>
       <c r="CK80" t="n" s="11">
-        <v>8553.0</v>
+        <v>8554.0</v>
       </c>
       <c r="CL80" t="n" s="11">
         <v>8601.0</v>
       </c>
       <c r="CM80" t="n" s="11">
-        <v>8611.0</v>
+        <v>8612.0</v>
       </c>
       <c r="CN80" t="n" s="11">
         <v>8707.0</v>
@@ -27507,7 +27508,7 @@
         <v>8774.0</v>
       </c>
       <c r="CP80" t="n" s="11">
-        <v>8823.0</v>
+        <v>8824.0</v>
       </c>
       <c r="CQ80" t="n" s="11">
         <v>8966.0</v>
@@ -27519,34 +27520,34 @@
         <v>9069.0</v>
       </c>
       <c r="CT80" t="n" s="11">
-        <v>9154.0</v>
+        <v>9155.0</v>
       </c>
       <c r="CU80" t="n" s="11">
         <v>9162.0</v>
       </c>
       <c r="CV80" t="n" s="11">
-        <v>9230.0</v>
+        <v>9231.0</v>
       </c>
       <c r="CW80" t="n" s="11">
         <v>9305.0</v>
       </c>
       <c r="CX80" t="n" s="11">
-        <v>9338.0</v>
+        <v>9337.0</v>
       </c>
       <c r="CY80" t="n" s="11">
         <v>9416.0</v>
       </c>
       <c r="CZ80" t="n" s="11">
-        <v>9491.0</v>
+        <v>9490.0</v>
       </c>
       <c r="DA80" t="n" s="11">
-        <v>9526.0</v>
+        <v>9525.0</v>
       </c>
       <c r="DB80" t="n" s="11">
-        <v>9587.0</v>
+        <v>9586.0</v>
       </c>
       <c r="DC80" t="n" s="11">
-        <v>9725.0</v>
+        <v>9724.0</v>
       </c>
       <c r="DD80" t="n" s="11">
         <v>9816.0</v>
@@ -27555,52 +27556,52 @@
         <v>9961.0</v>
       </c>
       <c r="DF80" t="n" s="11">
-        <v>10057.0</v>
+        <v>10058.0</v>
       </c>
       <c r="DG80" t="n" s="11">
-        <v>10068.0</v>
+        <v>10069.0</v>
       </c>
       <c r="DH80" t="n" s="11">
-        <v>10168.0</v>
+        <v>10170.0</v>
       </c>
       <c r="DI80" t="n" s="11">
         <v>10171.0</v>
       </c>
       <c r="DJ80" t="n" s="11">
-        <v>10251.0</v>
+        <v>10247.0</v>
       </c>
       <c r="DK80" t="n" s="11">
-        <v>10378.0</v>
+        <v>10370.0</v>
       </c>
       <c r="DL80" t="n" s="11">
-        <v>10421.0</v>
+        <v>10448.0</v>
       </c>
       <c r="DM80" t="n" s="11">
-        <v>10535.0</v>
+        <v>10522.0</v>
       </c>
       <c r="DN80" t="n" s="11">
-        <v>10503.0</v>
+        <v>10487.0</v>
       </c>
       <c r="DO80" t="n" s="11">
-        <v>10427.0</v>
+        <v>10416.0</v>
       </c>
       <c r="DP80" t="n" s="11">
-        <v>9474.0</v>
+        <v>9548.0</v>
       </c>
       <c r="DQ80" t="n" s="11">
-        <v>10254.0</v>
+        <v>10216.0</v>
       </c>
       <c r="DR80" t="n" s="11">
-        <v>10286.0</v>
+        <v>10262.0</v>
       </c>
       <c r="DS80" t="n" s="11">
-        <v>10318.0</v>
+        <v>10313.0</v>
       </c>
       <c r="DT80" t="n" s="11">
-        <v>10455.0</v>
-      </c>
-      <c r="DU80" t="s" s="11">
-        <v>44</v>
+        <v>10597.0</v>
+      </c>
+      <c r="DU80" t="n" s="11">
+        <v>10927.0</v>
       </c>
       <c r="DV80" t="s" s="11">
         <v>44</v>
@@ -27619,7 +27620,7 @@
         <v>43</v>
       </c>
       <c r="C82" t="n" s="11">
-        <v>72.26</v>
+        <v>72.23</v>
       </c>
       <c r="D82" t="n" s="11">
         <v>71.87</v>
@@ -27628,31 +27629,31 @@
         <v>72.15</v>
       </c>
       <c r="F82" t="n" s="11">
-        <v>72.93</v>
+        <v>72.92</v>
       </c>
       <c r="G82" t="n" s="11">
-        <v>73.49</v>
+        <v>73.5</v>
       </c>
       <c r="H82" t="n" s="11">
-        <v>73.47</v>
+        <v>73.46</v>
       </c>
       <c r="I82" t="n" s="11">
         <v>73.41</v>
       </c>
       <c r="J82" t="n" s="11">
-        <v>73.03</v>
+        <v>73.04</v>
       </c>
       <c r="K82" t="n" s="11">
-        <v>72.47</v>
+        <v>72.46</v>
       </c>
       <c r="L82" t="n" s="11">
-        <v>72.45</v>
+        <v>72.46</v>
       </c>
       <c r="M82" t="n" s="11">
-        <v>72.59</v>
+        <v>72.6</v>
       </c>
       <c r="N82" t="n" s="11">
-        <v>72.22</v>
+        <v>72.24</v>
       </c>
       <c r="O82" t="n" s="11">
         <v>73.26</v>
@@ -27664,70 +27665,70 @@
         <v>74.22</v>
       </c>
       <c r="R82" t="n" s="11">
-        <v>75.01</v>
+        <v>75.0</v>
       </c>
       <c r="S82" t="n" s="11">
-        <v>75.15</v>
+        <v>75.17</v>
       </c>
       <c r="T82" t="n" s="11">
-        <v>75.53</v>
+        <v>75.52</v>
       </c>
       <c r="U82" t="n" s="11">
-        <v>75.78</v>
+        <v>75.76</v>
       </c>
       <c r="V82" t="n" s="11">
         <v>75.6</v>
       </c>
       <c r="W82" t="n" s="11">
-        <v>75.69</v>
+        <v>75.7</v>
       </c>
       <c r="X82" t="n" s="11">
-        <v>76.24</v>
+        <v>76.23</v>
       </c>
       <c r="Y82" t="n" s="11">
         <v>76.48</v>
       </c>
       <c r="Z82" t="n" s="11">
-        <v>76.89</v>
+        <v>76.88</v>
       </c>
       <c r="AA82" t="n" s="11">
-        <v>77.24</v>
+        <v>77.21</v>
       </c>
       <c r="AB82" t="n" s="11">
-        <v>77.71</v>
+        <v>77.72</v>
       </c>
       <c r="AC82" t="n" s="11">
         <v>78.16</v>
       </c>
       <c r="AD82" t="n" s="11">
-        <v>78.95</v>
+        <v>78.94</v>
       </c>
       <c r="AE82" t="n" s="11">
-        <v>79.38</v>
+        <v>79.39</v>
       </c>
       <c r="AF82" t="n" s="11">
-        <v>79.36</v>
+        <v>79.35</v>
       </c>
       <c r="AG82" t="n" s="11">
-        <v>79.61</v>
+        <v>79.62</v>
       </c>
       <c r="AH82" t="n" s="11">
-        <v>79.56</v>
+        <v>79.57</v>
       </c>
       <c r="AI82" t="n" s="11">
         <v>79.78</v>
       </c>
       <c r="AJ82" t="n" s="11">
-        <v>80.08</v>
+        <v>80.09</v>
       </c>
       <c r="AK82" t="n" s="11">
-        <v>80.9</v>
+        <v>80.91</v>
       </c>
       <c r="AL82" t="n" s="11">
-        <v>81.58</v>
+        <v>81.61</v>
       </c>
       <c r="AM82" t="n" s="11">
-        <v>82.5</v>
+        <v>82.52</v>
       </c>
       <c r="AN82" t="n" s="11">
         <v>83.46</v>
@@ -27736,25 +27737,25 @@
         <v>83.82</v>
       </c>
       <c r="AP82" t="n" s="11">
-        <v>84.22</v>
+        <v>84.2</v>
       </c>
       <c r="AQ82" t="n" s="11">
-        <v>85.08</v>
+        <v>85.09</v>
       </c>
       <c r="AR82" t="n" s="11">
-        <v>85.15</v>
+        <v>85.14</v>
       </c>
       <c r="AS82" t="n" s="11">
-        <v>85.22</v>
+        <v>85.21</v>
       </c>
       <c r="AT82" t="n" s="11">
-        <v>85.39</v>
+        <v>85.37</v>
       </c>
       <c r="AU82" t="n" s="11">
-        <v>85.19</v>
+        <v>85.18</v>
       </c>
       <c r="AV82" t="n" s="11">
-        <v>85.37</v>
+        <v>85.38</v>
       </c>
       <c r="AW82" t="n" s="11">
         <v>85.35</v>
@@ -27766,124 +27767,124 @@
         <v>84.66</v>
       </c>
       <c r="AZ82" t="n" s="11">
-        <v>84.45</v>
+        <v>84.44</v>
       </c>
       <c r="BA82" t="n" s="11">
         <v>84.98</v>
       </c>
       <c r="BB82" t="n" s="11">
-        <v>85.33</v>
+        <v>85.32</v>
       </c>
       <c r="BC82" t="n" s="11">
-        <v>85.57</v>
+        <v>85.59</v>
       </c>
       <c r="BD82" t="n" s="11">
         <v>86.06</v>
       </c>
       <c r="BE82" t="n" s="11">
-        <v>85.71</v>
+        <v>85.72</v>
       </c>
       <c r="BF82" t="n" s="11">
-        <v>85.44</v>
+        <v>85.46</v>
       </c>
       <c r="BG82" t="n" s="11">
-        <v>85.92</v>
+        <v>85.91</v>
       </c>
       <c r="BH82" t="n" s="11">
-        <v>85.92</v>
+        <v>85.95</v>
       </c>
       <c r="BI82" t="n" s="11">
-        <v>86.62</v>
+        <v>86.63</v>
       </c>
       <c r="BJ82" t="n" s="11">
-        <v>87.3</v>
+        <v>87.31</v>
       </c>
       <c r="BK82" t="n" s="11">
-        <v>88.14</v>
+        <v>88.16</v>
       </c>
       <c r="BL82" t="n" s="11">
-        <v>89.58</v>
+        <v>89.57</v>
       </c>
       <c r="BM82" t="n" s="11">
-        <v>90.6</v>
+        <v>90.59</v>
       </c>
       <c r="BN82" t="n" s="11">
-        <v>91.85</v>
+        <v>91.84</v>
       </c>
       <c r="BO82" t="n" s="11">
-        <v>92.35</v>
+        <v>92.36</v>
       </c>
       <c r="BP82" t="n" s="11">
-        <v>92.95</v>
+        <v>92.93</v>
       </c>
       <c r="BQ82" t="n" s="11">
-        <v>93.64</v>
+        <v>93.63</v>
       </c>
       <c r="BR82" t="n" s="11">
         <v>94.5</v>
       </c>
       <c r="BS82" t="n" s="11">
-        <v>95.1</v>
+        <v>95.08</v>
       </c>
       <c r="BT82" t="n" s="11">
-        <v>94.75</v>
+        <v>94.78</v>
       </c>
       <c r="BU82" t="n" s="11">
-        <v>94.0</v>
+        <v>94.02</v>
       </c>
       <c r="BV82" t="n" s="11">
-        <v>92.61</v>
+        <v>92.56</v>
       </c>
       <c r="BW82" t="n" s="11">
-        <v>87.92</v>
+        <v>87.94</v>
       </c>
       <c r="BX82" t="n" s="11">
         <v>87.85</v>
       </c>
       <c r="BY82" t="n" s="11">
-        <v>88.19</v>
+        <v>88.23</v>
       </c>
       <c r="BZ82" t="n" s="11">
-        <v>89.21</v>
+        <v>89.14</v>
       </c>
       <c r="CA82" t="n" s="11">
-        <v>90.25</v>
+        <v>90.28</v>
       </c>
       <c r="CB82" t="n" s="11">
-        <v>91.62</v>
+        <v>91.65</v>
       </c>
       <c r="CC82" t="n" s="11">
-        <v>92.42</v>
+        <v>92.44</v>
       </c>
       <c r="CD82" t="n" s="11">
-        <v>93.27</v>
+        <v>93.25</v>
       </c>
       <c r="CE82" t="n" s="11">
-        <v>94.96</v>
+        <v>94.99</v>
       </c>
       <c r="CF82" t="n" s="11">
-        <v>95.15</v>
+        <v>95.17</v>
       </c>
       <c r="CG82" t="n" s="11">
-        <v>95.94</v>
+        <v>95.96</v>
       </c>
       <c r="CH82" t="n" s="11">
-        <v>95.93</v>
+        <v>95.92</v>
       </c>
       <c r="CI82" t="n" s="11">
-        <v>96.21</v>
+        <v>96.23</v>
       </c>
       <c r="CJ82" t="n" s="11">
+        <v>96.28</v>
+      </c>
+      <c r="CK82" t="n" s="11">
         <v>96.29</v>
       </c>
-      <c r="CK82" t="n" s="11">
-        <v>96.31</v>
-      </c>
       <c r="CL82" t="n" s="11">
-        <v>96.17</v>
+        <v>96.16</v>
       </c>
       <c r="CM82" t="n" s="11">
-        <v>96.06</v>
+        <v>96.04</v>
       </c>
       <c r="CN82" t="n" s="11">
         <v>96.63</v>
@@ -27892,13 +27893,13 @@
         <v>97.04</v>
       </c>
       <c r="CP82" t="n" s="11">
-        <v>97.54</v>
+        <v>97.53</v>
       </c>
       <c r="CQ82" t="n" s="11">
         <v>98.62</v>
       </c>
       <c r="CR82" t="n" s="11">
-        <v>98.58</v>
+        <v>98.56</v>
       </c>
       <c r="CS82" t="n" s="11">
         <v>99.06</v>
@@ -27910,82 +27911,82 @@
         <v>99.26</v>
       </c>
       <c r="CV82" t="n" s="11">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="CW82" t="n" s="11">
         <v>100.3</v>
       </c>
       <c r="CX82" t="n" s="11">
-        <v>100.62</v>
+        <v>100.64</v>
       </c>
       <c r="CY82" t="n" s="11">
-        <v>101.48</v>
+        <v>101.47</v>
       </c>
       <c r="CZ82" t="n" s="11">
-        <v>102.01</v>
+        <v>102.03</v>
       </c>
       <c r="DA82" t="n" s="11">
-        <v>102.27</v>
+        <v>102.28</v>
       </c>
       <c r="DB82" t="n" s="11">
-        <v>102.68</v>
+        <v>102.69</v>
       </c>
       <c r="DC82" t="n" s="11">
         <v>103.82</v>
       </c>
       <c r="DD82" t="n" s="11">
-        <v>104.65</v>
+        <v>104.64</v>
       </c>
       <c r="DE82" t="n" s="11">
-        <v>105.89</v>
+        <v>105.9</v>
       </c>
       <c r="DF82" t="n" s="11">
         <v>106.74</v>
       </c>
       <c r="DG82" t="n" s="11">
-        <v>106.24</v>
+        <v>106.17</v>
       </c>
       <c r="DH82" t="n" s="11">
-        <v>106.69</v>
+        <v>106.71</v>
       </c>
       <c r="DI82" t="n" s="11">
-        <v>106.35</v>
+        <v>106.36</v>
       </c>
       <c r="DJ82" t="n" s="11">
-        <v>106.49</v>
+        <v>106.51</v>
       </c>
       <c r="DK82" t="n" s="11">
-        <v>107.48</v>
+        <v>107.39</v>
       </c>
       <c r="DL82" t="n" s="11">
-        <v>107.74</v>
+        <v>107.69</v>
       </c>
       <c r="DM82" t="n" s="11">
-        <v>107.93</v>
+        <v>107.99</v>
       </c>
       <c r="DN82" t="n" s="11">
-        <v>106.57</v>
+        <v>106.74</v>
       </c>
       <c r="DO82" t="n" s="11">
-        <v>105.63</v>
+        <v>105.49</v>
       </c>
       <c r="DP82" t="n" s="11">
-        <v>95.42</v>
+        <v>95.3</v>
       </c>
       <c r="DQ82" t="n" s="11">
-        <v>103.83</v>
+        <v>104.03</v>
       </c>
       <c r="DR82" t="n" s="11">
-        <v>102.62</v>
+        <v>102.93</v>
       </c>
       <c r="DS82" t="n" s="11">
-        <v>102.32</v>
+        <v>102.07</v>
       </c>
       <c r="DT82" t="n" s="11">
-        <v>104.31</v>
-      </c>
-      <c r="DU82" t="s" s="11">
-        <v>44</v>
+        <v>104.6</v>
+      </c>
+      <c r="DU82" t="n" s="11">
+        <v>106.87</v>
       </c>
       <c r="DV82" t="s" s="11">
         <v>44</v>
@@ -27999,142 +28000,142 @@
         <v>43</v>
       </c>
       <c r="C83" t="n" s="11">
-        <v>85.54</v>
+        <v>85.91</v>
       </c>
       <c r="D83" t="n" s="11">
-        <v>89.4</v>
+        <v>89.42</v>
       </c>
       <c r="E83" t="n" s="11">
         <v>86.5</v>
       </c>
       <c r="F83" t="n" s="11">
-        <v>87.25</v>
+        <v>87.38</v>
       </c>
       <c r="G83" t="n" s="11">
-        <v>88.99</v>
+        <v>88.88</v>
       </c>
       <c r="H83" t="n" s="11">
-        <v>88.97</v>
+        <v>89.1</v>
       </c>
       <c r="I83" t="n" s="11">
         <v>88.12</v>
       </c>
       <c r="J83" t="n" s="11">
-        <v>89.61</v>
+        <v>89.49</v>
       </c>
       <c r="K83" t="n" s="11">
-        <v>86.04</v>
+        <v>86.16</v>
       </c>
       <c r="L83" t="n" s="11">
-        <v>88.23</v>
+        <v>88.12</v>
       </c>
       <c r="M83" t="n" s="11">
-        <v>90.2</v>
+        <v>90.09</v>
       </c>
       <c r="N83" t="n" s="11">
-        <v>91.15</v>
+        <v>90.92</v>
       </c>
       <c r="O83" t="n" s="11">
-        <v>94.98</v>
+        <v>94.99</v>
       </c>
       <c r="P83" t="n" s="11">
-        <v>92.94</v>
+        <v>92.95</v>
       </c>
       <c r="Q83" t="n" s="11">
         <v>92.18</v>
       </c>
       <c r="R83" t="n" s="11">
-        <v>94.24</v>
+        <v>94.37</v>
       </c>
       <c r="S83" t="n" s="11">
-        <v>91.98</v>
+        <v>91.87</v>
       </c>
       <c r="T83" t="n" s="11">
-        <v>93.36</v>
+        <v>93.49</v>
       </c>
       <c r="U83" t="n" s="11">
-        <v>91.96</v>
+        <v>92.2</v>
       </c>
       <c r="V83" t="n" s="11">
-        <v>93.43</v>
+        <v>93.31</v>
       </c>
       <c r="W83" t="n" s="11">
-        <v>92.38</v>
+        <v>92.26</v>
       </c>
       <c r="X83" t="n" s="11">
-        <v>90.86</v>
+        <v>90.99</v>
       </c>
       <c r="Y83" t="n" s="11">
         <v>92.0</v>
       </c>
       <c r="Z83" t="n" s="11">
-        <v>92.4</v>
+        <v>92.53</v>
       </c>
       <c r="AA83" t="n" s="11">
-        <v>90.97</v>
+        <v>91.2</v>
       </c>
       <c r="AB83" t="n" s="11">
-        <v>92.07</v>
+        <v>91.95</v>
       </c>
       <c r="AC83" t="n" s="11">
         <v>91.5</v>
       </c>
       <c r="AD83" t="n" s="11">
-        <v>91.39</v>
+        <v>91.51</v>
       </c>
       <c r="AE83" t="n" s="11">
-        <v>91.96</v>
+        <v>91.85</v>
       </c>
       <c r="AF83" t="n" s="11">
-        <v>92.06</v>
+        <v>92.18</v>
       </c>
       <c r="AG83" t="n" s="11">
-        <v>91.68</v>
+        <v>91.57</v>
       </c>
       <c r="AH83" t="n" s="11">
-        <v>91.39</v>
+        <v>91.27</v>
       </c>
       <c r="AI83" t="n" s="11">
-        <v>94.41</v>
+        <v>94.42</v>
       </c>
       <c r="AJ83" t="n" s="11">
-        <v>93.38</v>
+        <v>93.27</v>
       </c>
       <c r="AK83" t="n" s="11">
         <v>95.29</v>
       </c>
       <c r="AL83" t="n" s="11">
-        <v>97.18</v>
+        <v>96.95</v>
       </c>
       <c r="AM83" t="n" s="11">
-        <v>95.0</v>
+        <v>94.79</v>
       </c>
       <c r="AN83" t="n" s="11">
-        <v>96.67</v>
+        <v>96.66</v>
       </c>
       <c r="AO83" t="n" s="11">
         <v>94.79</v>
       </c>
       <c r="AP83" t="n" s="11">
-        <v>93.66</v>
+        <v>93.88</v>
       </c>
       <c r="AQ83" t="n" s="11">
-        <v>95.04</v>
+        <v>94.94</v>
       </c>
       <c r="AR83" t="n" s="11">
-        <v>94.76</v>
+        <v>94.87</v>
       </c>
       <c r="AS83" t="n" s="11">
-        <v>93.35</v>
+        <v>93.44</v>
       </c>
       <c r="AT83" t="n" s="11">
-        <v>92.48</v>
+        <v>92.69</v>
       </c>
       <c r="AU83" t="n" s="11">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="AV83" t="n" s="11">
-        <v>90.56</v>
+        <v>90.45</v>
       </c>
       <c r="AW83" t="n" s="11">
         <v>92.69</v>
@@ -28143,127 +28144,127 @@
         <v>91.54</v>
       </c>
       <c r="AY83" t="n" s="11">
-        <v>90.31</v>
+        <v>90.3</v>
       </c>
       <c r="AZ83" t="n" s="11">
-        <v>91.54</v>
+        <v>91.65</v>
       </c>
       <c r="BA83" t="n" s="11">
-        <v>88.96</v>
+        <v>88.95</v>
       </c>
       <c r="BB83" t="n" s="11">
-        <v>90.31</v>
+        <v>90.42</v>
       </c>
       <c r="BC83" t="n" s="11">
-        <v>89.58</v>
+        <v>89.49</v>
       </c>
       <c r="BD83" t="n" s="11">
         <v>86.26</v>
       </c>
       <c r="BE83" t="n" s="11">
-        <v>86.46</v>
+        <v>86.36</v>
       </c>
       <c r="BF83" t="n" s="11">
-        <v>86.62</v>
+        <v>86.41</v>
       </c>
       <c r="BG83" t="n" s="11">
-        <v>87.21</v>
+        <v>87.31</v>
       </c>
       <c r="BH83" t="n" s="11">
-        <v>87.96</v>
+        <v>87.67</v>
       </c>
       <c r="BI83" t="n" s="11">
-        <v>89.42</v>
+        <v>89.32</v>
       </c>
       <c r="BJ83" t="n" s="11">
-        <v>88.49</v>
+        <v>88.39</v>
       </c>
       <c r="BK83" t="n" s="11">
-        <v>90.41</v>
+        <v>90.21</v>
       </c>
       <c r="BL83" t="n" s="11">
-        <v>91.43</v>
+        <v>91.52</v>
       </c>
       <c r="BM83" t="n" s="11">
-        <v>90.43</v>
+        <v>90.53</v>
       </c>
       <c r="BN83" t="n" s="11">
-        <v>92.43</v>
+        <v>92.52</v>
       </c>
       <c r="BO83" t="n" s="11">
-        <v>90.29</v>
+        <v>90.19</v>
       </c>
       <c r="BP83" t="n" s="11">
+        <v>90.24</v>
+      </c>
+      <c r="BQ83" t="n" s="11">
+        <v>88.82</v>
+      </c>
+      <c r="BR83" t="n" s="11">
+        <v>87.58</v>
+      </c>
+      <c r="BS83" t="n" s="11">
         <v>90.05</v>
       </c>
-      <c r="BQ83" t="n" s="11">
-        <v>88.84</v>
-      </c>
-      <c r="BR83" t="n" s="11">
-        <v>87.59</v>
-      </c>
-      <c r="BS83" t="n" s="11">
-        <v>89.98</v>
-      </c>
       <c r="BT83" t="n" s="11">
-        <v>90.2</v>
+        <v>89.94</v>
       </c>
       <c r="BU83" t="n" s="11">
-        <v>87.83</v>
+        <v>87.66</v>
       </c>
       <c r="BV83" t="n" s="11">
-        <v>88.25</v>
+        <v>88.68</v>
       </c>
       <c r="BW83" t="n" s="11">
-        <v>87.61</v>
+        <v>87.44</v>
       </c>
       <c r="BX83" t="n" s="11">
         <v>89.9</v>
       </c>
       <c r="BY83" t="n" s="11">
-        <v>87.6</v>
+        <v>87.25</v>
       </c>
       <c r="BZ83" t="n" s="11">
-        <v>87.67</v>
+        <v>88.26</v>
       </c>
       <c r="CA83" t="n" s="11">
-        <v>86.55</v>
+        <v>86.29</v>
       </c>
       <c r="CB83" t="n" s="11">
-        <v>91.59</v>
+        <v>91.33</v>
       </c>
       <c r="CC83" t="n" s="11">
-        <v>92.01</v>
+        <v>91.83</v>
       </c>
       <c r="CD83" t="n" s="11">
-        <v>93.05</v>
+        <v>93.22</v>
       </c>
       <c r="CE83" t="n" s="11">
-        <v>93.77</v>
+        <v>93.51</v>
       </c>
       <c r="CF83" t="n" s="11">
-        <v>94.65</v>
+        <v>94.47</v>
       </c>
       <c r="CG83" t="n" s="11">
-        <v>93.86</v>
+        <v>93.79</v>
       </c>
       <c r="CH83" t="n" s="11">
-        <v>95.92</v>
+        <v>96.01</v>
       </c>
       <c r="CI83" t="n" s="11">
-        <v>93.38</v>
+        <v>93.2</v>
       </c>
       <c r="CJ83" t="n" s="11">
-        <v>93.65</v>
+        <v>93.73</v>
       </c>
       <c r="CK83" t="n" s="11">
-        <v>93.77</v>
+        <v>93.94</v>
       </c>
       <c r="CL83" t="n" s="11">
-        <v>95.37</v>
+        <v>95.45</v>
       </c>
       <c r="CM83" t="n" s="11">
-        <v>93.43</v>
+        <v>93.6</v>
       </c>
       <c r="CN83" t="n" s="11">
         <v>94.67</v>
@@ -28272,13 +28273,13 @@
         <v>95.27</v>
       </c>
       <c r="CP83" t="n" s="11">
-        <v>94.23</v>
+        <v>94.32</v>
       </c>
       <c r="CQ83" t="n" s="11">
         <v>95.11</v>
       </c>
       <c r="CR83" t="n" s="11">
-        <v>96.04</v>
+        <v>96.21</v>
       </c>
       <c r="CS83" t="n" s="11">
         <v>96.22</v>
@@ -28290,82 +28291,82 @@
         <v>98.28</v>
       </c>
       <c r="CV83" t="n" s="11">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="CW83" t="n" s="11">
         <v>100.49</v>
       </c>
       <c r="CX83" t="n" s="11">
-        <v>101.79</v>
+        <v>101.62</v>
       </c>
       <c r="CY83" t="n" s="11">
-        <v>102.08</v>
+        <v>102.17</v>
       </c>
       <c r="CZ83" t="n" s="11">
-        <v>101.22</v>
+        <v>101.13</v>
       </c>
       <c r="DA83" t="n" s="11">
-        <v>102.37</v>
+        <v>102.28</v>
       </c>
       <c r="DB83" t="n" s="11">
-        <v>102.08</v>
+        <v>101.99</v>
       </c>
       <c r="DC83" t="n" s="11">
         <v>103.42</v>
       </c>
       <c r="DD83" t="n" s="11">
-        <v>103.95</v>
+        <v>104.04</v>
       </c>
       <c r="DE83" t="n" s="11">
-        <v>103.48</v>
+        <v>103.4</v>
       </c>
       <c r="DF83" t="n" s="11">
         <v>104.44</v>
       </c>
       <c r="DG83" t="n" s="11">
-        <v>104.14</v>
+        <v>104.77</v>
       </c>
       <c r="DH83" t="n" s="11">
-        <v>104.99</v>
+        <v>104.91</v>
       </c>
       <c r="DI83" t="n" s="11">
-        <v>104.75</v>
+        <v>104.66</v>
       </c>
       <c r="DJ83" t="n" s="11">
-        <v>105.39</v>
+        <v>105.01</v>
       </c>
       <c r="DK83" t="n" s="11">
-        <v>108.46</v>
+        <v>108.78</v>
       </c>
       <c r="DL83" t="n" s="11">
-        <v>102.55</v>
+        <v>104.4</v>
       </c>
       <c r="DM83" t="n" s="11">
-        <v>105.53</v>
+        <v>104.39</v>
       </c>
       <c r="DN83" t="n" s="11">
-        <v>109.85</v>
+        <v>107.63</v>
       </c>
       <c r="DO83" t="n" s="11">
-        <v>107.64</v>
+        <v>108.6</v>
       </c>
       <c r="DP83" t="n" s="11">
-        <v>92.5</v>
+        <v>97.3</v>
       </c>
       <c r="DQ83" t="n" s="11">
-        <v>103.82</v>
+        <v>100.23</v>
       </c>
       <c r="DR83" t="n" s="11">
-        <v>113.87</v>
+        <v>110.14</v>
       </c>
       <c r="DS83" t="n" s="11">
-        <v>108.85</v>
+        <v>113.38</v>
       </c>
       <c r="DT83" t="n" s="11">
-        <v>97.99</v>
-      </c>
-      <c r="DU83" t="s" s="11">
-        <v>44</v>
+        <v>106.48</v>
+      </c>
+      <c r="DU83" t="n" s="11">
+        <v>99.43</v>
       </c>
       <c r="DV83" t="s" s="11">
         <v>44</v>
@@ -29187,7 +29188,7 @@
         <v>76.62</v>
       </c>
       <c r="S86" t="n" s="11">
-        <v>76.57</v>
+        <v>76.58</v>
       </c>
       <c r="T86" t="n" s="11">
         <v>77.03</v>
@@ -29196,7 +29197,7 @@
         <v>77.15</v>
       </c>
       <c r="V86" t="n" s="11">
-        <v>77.1</v>
+        <v>77.09</v>
       </c>
       <c r="W86" t="n" s="11">
         <v>77.1</v>
@@ -29211,7 +29212,7 @@
         <v>78.21</v>
       </c>
       <c r="AA86" t="n" s="11">
-        <v>78.42</v>
+        <v>78.41</v>
       </c>
       <c r="AB86" t="n" s="11">
         <v>78.94</v>
@@ -29241,10 +29242,10 @@
         <v>81.23</v>
       </c>
       <c r="AK86" t="n" s="11">
-        <v>82.14</v>
+        <v>82.15</v>
       </c>
       <c r="AL86" t="n" s="11">
-        <v>82.92</v>
+        <v>82.93</v>
       </c>
       <c r="AM86" t="n" s="11">
         <v>83.58</v>
@@ -29295,7 +29296,7 @@
         <v>85.75</v>
       </c>
       <c r="BC86" t="n" s="11">
-        <v>85.9</v>
+        <v>85.91</v>
       </c>
       <c r="BD86" t="n" s="11">
         <v>86.04</v>
@@ -29337,13 +29338,13 @@
         <v>92.63</v>
       </c>
       <c r="BQ86" t="n" s="11">
-        <v>93.14</v>
+        <v>93.13</v>
       </c>
       <c r="BR86" t="n" s="11">
         <v>93.8</v>
       </c>
       <c r="BS86" t="n" s="11">
-        <v>94.56</v>
+        <v>94.55</v>
       </c>
       <c r="BT86" t="n" s="11">
         <v>94.27</v>
@@ -29385,7 +29386,7 @@
         <v>95.1</v>
       </c>
       <c r="CG86" t="n" s="11">
-        <v>95.73</v>
+        <v>95.74</v>
       </c>
       <c r="CH86" t="n" s="11">
         <v>95.93</v>
@@ -29430,7 +29431,7 @@
         <v>99.16</v>
       </c>
       <c r="CV86" t="n" s="11">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="CW86" t="n" s="11">
         <v>100.32</v>
@@ -29442,7 +29443,7 @@
         <v>101.54</v>
       </c>
       <c r="CZ86" t="n" s="11">
-        <v>101.93</v>
+        <v>101.94</v>
       </c>
       <c r="DA86" t="n" s="11">
         <v>102.28</v>
@@ -29466,46 +29467,46 @@
         <v>106.03</v>
       </c>
       <c r="DH86" t="n" s="11">
-        <v>106.52</v>
+        <v>106.53</v>
       </c>
       <c r="DI86" t="n" s="11">
         <v>106.19</v>
       </c>
       <c r="DJ86" t="n" s="11">
-        <v>106.38</v>
+        <v>106.36</v>
       </c>
       <c r="DK86" t="n" s="11">
-        <v>107.58</v>
+        <v>107.53</v>
       </c>
       <c r="DL86" t="n" s="11">
-        <v>107.22</v>
+        <v>107.36</v>
       </c>
       <c r="DM86" t="n" s="11">
-        <v>107.69</v>
+        <v>107.63</v>
       </c>
       <c r="DN86" t="n" s="11">
-        <v>106.9</v>
+        <v>106.83</v>
       </c>
       <c r="DO86" t="n" s="11">
-        <v>105.83</v>
+        <v>105.8</v>
       </c>
       <c r="DP86" t="n" s="11">
-        <v>95.13</v>
+        <v>95.5</v>
       </c>
       <c r="DQ86" t="n" s="11">
-        <v>103.83</v>
+        <v>103.65</v>
       </c>
       <c r="DR86" t="n" s="11">
-        <v>103.74</v>
+        <v>103.65</v>
       </c>
       <c r="DS86" t="n" s="11">
-        <v>102.94</v>
+        <v>103.13</v>
       </c>
       <c r="DT86" t="n" s="11">
-        <v>103.75</v>
-      </c>
-      <c r="DU86" t="s" s="11">
-        <v>44</v>
+        <v>104.79</v>
+      </c>
+      <c r="DU86" t="n" s="11">
+        <v>106.2</v>
       </c>
       <c r="DV86" t="s" s="11">
         <v>44</v>
@@ -29717,7 +29718,7 @@
         <v>0.6</v>
       </c>
       <c r="BQ87" t="n" s="11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BR87" t="n" s="11">
         <v>0.7</v>
@@ -29858,10 +29859,10 @@
         <v>1.1</v>
       </c>
       <c r="DL87" t="n" s="11">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DM87" t="n" s="11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DN87" t="n" s="11">
         <v>-0.7</v>
@@ -29870,22 +29871,22 @@
         <v>-1.0</v>
       </c>
       <c r="DP87" t="n" s="11">
-        <v>-10.1</v>
+        <v>-9.7</v>
       </c>
       <c r="DQ87" t="n" s="11">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="DR87" t="n" s="11">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DS87" t="n" s="11">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="DT87" t="n" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="DU87" t="s" s="11">
-        <v>44</v>
+        <v>1.6</v>
+      </c>
+      <c r="DU87" t="n" s="11">
+        <v>1.3</v>
       </c>
       <c r="DV87" t="s" s="11">
         <v>44</v>
@@ -29899,13 +29900,13 @@
         <v>43</v>
       </c>
       <c r="C88" t="n" s="11">
-        <v>75.13</v>
+        <v>75.12</v>
       </c>
       <c r="D88" t="n" s="11">
-        <v>74.96</v>
+        <v>74.97</v>
       </c>
       <c r="E88" t="n" s="11">
-        <v>74.92</v>
+        <v>74.91</v>
       </c>
       <c r="F88" t="n" s="11">
         <v>75.6</v>
@@ -29917,7 +29918,7 @@
         <v>75.98</v>
       </c>
       <c r="I88" t="n" s="11">
-        <v>75.7</v>
+        <v>75.69</v>
       </c>
       <c r="J88" t="n" s="11">
         <v>75.3</v>
@@ -29947,7 +29948,7 @@
         <v>77.08</v>
       </c>
       <c r="S88" t="n" s="11">
-        <v>77.0</v>
+        <v>77.01</v>
       </c>
       <c r="T88" t="n" s="11">
         <v>77.42</v>
@@ -29956,7 +29957,7 @@
         <v>77.48</v>
       </c>
       <c r="V88" t="n" s="11">
-        <v>77.39</v>
+        <v>77.38</v>
       </c>
       <c r="W88" t="n" s="11">
         <v>77.35</v>
@@ -29971,7 +29972,7 @@
         <v>78.37</v>
       </c>
       <c r="AA88" t="n" s="11">
-        <v>78.59</v>
+        <v>78.58</v>
       </c>
       <c r="AB88" t="n" s="11">
         <v>79.1</v>
@@ -30001,10 +30002,10 @@
         <v>81.51</v>
       </c>
       <c r="AK88" t="n" s="11">
-        <v>82.4</v>
+        <v>82.41</v>
       </c>
       <c r="AL88" t="n" s="11">
-        <v>83.16</v>
+        <v>83.17</v>
       </c>
       <c r="AM88" t="n" s="11">
         <v>83.81</v>
@@ -30055,7 +30056,7 @@
         <v>85.93</v>
       </c>
       <c r="BC88" t="n" s="11">
-        <v>86.1</v>
+        <v>86.11</v>
       </c>
       <c r="BD88" t="n" s="11">
         <v>86.27</v>
@@ -30097,13 +30098,13 @@
         <v>93.4</v>
       </c>
       <c r="BQ88" t="n" s="11">
-        <v>93.97</v>
+        <v>93.96</v>
       </c>
       <c r="BR88" t="n" s="11">
         <v>94.68</v>
       </c>
       <c r="BS88" t="n" s="11">
-        <v>95.52</v>
+        <v>95.51</v>
       </c>
       <c r="BT88" t="n" s="11">
         <v>95.3</v>
@@ -30145,7 +30146,7 @@
         <v>96.79</v>
       </c>
       <c r="CG88" t="n" s="11">
-        <v>97.41</v>
+        <v>97.42</v>
       </c>
       <c r="CH88" t="n" s="11">
         <v>97.57</v>
@@ -30190,7 +30191,7 @@
         <v>99.54</v>
       </c>
       <c r="CV88" t="n" s="11">
-        <v>99.97</v>
+        <v>99.96</v>
       </c>
       <c r="CW88" t="n" s="11">
         <v>100.25</v>
@@ -30202,7 +30203,7 @@
         <v>100.9</v>
       </c>
       <c r="CZ88" t="n" s="11">
-        <v>101.16</v>
+        <v>101.17</v>
       </c>
       <c r="DA88" t="n" s="11">
         <v>101.4</v>
@@ -30226,46 +30227,46 @@
         <v>104.59</v>
       </c>
       <c r="DH88" t="n" s="11">
-        <v>105.01</v>
+        <v>105.02</v>
       </c>
       <c r="DI88" t="n" s="11">
         <v>104.59</v>
       </c>
       <c r="DJ88" t="n" s="11">
-        <v>104.69</v>
+        <v>104.67</v>
       </c>
       <c r="DK88" t="n" s="11">
-        <v>105.83</v>
+        <v>105.78</v>
       </c>
       <c r="DL88" t="n" s="11">
-        <v>105.42</v>
+        <v>105.56</v>
       </c>
       <c r="DM88" t="n" s="11">
-        <v>105.85</v>
+        <v>105.79</v>
       </c>
       <c r="DN88" t="n" s="11">
-        <v>105.03</v>
+        <v>104.96</v>
       </c>
       <c r="DO88" t="n" s="11">
-        <v>103.94</v>
+        <v>103.91</v>
       </c>
       <c r="DP88" t="n" s="11">
-        <v>93.46</v>
+        <v>93.81</v>
       </c>
       <c r="DQ88" t="n" s="11">
-        <v>101.99</v>
+        <v>101.82</v>
       </c>
       <c r="DR88" t="n" s="11">
-        <v>101.91</v>
+        <v>101.82</v>
       </c>
       <c r="DS88" t="n" s="11">
-        <v>101.16</v>
+        <v>101.35</v>
       </c>
       <c r="DT88" t="n" s="11">
-        <v>101.93</v>
-      </c>
-      <c r="DU88" t="s" s="11">
-        <v>44</v>
+        <v>102.94</v>
+      </c>
+      <c r="DU88" t="n" s="11">
+        <v>104.32</v>
       </c>
       <c r="DV88" t="s" s="11">
         <v>44</v>
@@ -30650,7 +30651,7 @@
         <v>47</v>
       </c>
       <c r="DU90" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV90" t="s" s="11">
         <v>44</v>
@@ -31030,7 +31031,7 @@
         <v>47</v>
       </c>
       <c r="DU91" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV91" t="s" s="11">
         <v>44</v>
@@ -32170,7 +32171,7 @@
         <v>47</v>
       </c>
       <c r="DU94" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV94" t="s" s="11">
         <v>44</v>
@@ -32550,7 +32551,7 @@
         <v>47</v>
       </c>
       <c r="DU95" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV95" t="s" s="11">
         <v>44</v>
@@ -32930,7 +32931,7 @@
         <v>47</v>
       </c>
       <c r="DU96" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV96" t="s" s="11">
         <v>44</v>
@@ -33315,7 +33316,7 @@
         <v>47</v>
       </c>
       <c r="DU98" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV98" t="s" s="11">
         <v>44</v>
@@ -33695,7 +33696,7 @@
         <v>47</v>
       </c>
       <c r="DU99" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV99" t="s" s="11">
         <v>44</v>
@@ -34835,7 +34836,7 @@
         <v>47</v>
       </c>
       <c r="DU102" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV102" t="s" s="11">
         <v>44</v>
@@ -35215,7 +35216,7 @@
         <v>47</v>
       </c>
       <c r="DU103" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV103" t="s" s="11">
         <v>44</v>
@@ -35595,7 +35596,7 @@
         <v>47</v>
       </c>
       <c r="DU104" t="s" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="DV104" t="s" s="11">
         <v>44</v>
@@ -35727,7 +35728,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:46:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:49:40&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>